--- a/en/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/060_コード設計/コード設計書_サンプルプロジェクト.xlsx
+++ b/en/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/060_コード設計/コード設計書_サンプルプロジェクト.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF7C47E7-4A5A-4D1D-AA4A-69152D4EB50E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC7D2C9-B56B-417B-B522-87F2EEFB0EB3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="3690" windowWidth="23955" windowHeight="8460" tabRatio="822" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="34" state="hidden" r:id="rId1"/>
@@ -961,6 +961,87 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -1075,85 +1156,76 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="177" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1174,78 +1246,6 @@
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1255,6 +1255,12 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1285,7 +1291,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1300,6 +1306,18 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1354,25 +1372,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2728,57 +2728,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="26" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="134" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="101" t="s">
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="128" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
-      <c r="M1" s="102"/>
-      <c r="N1" s="103"/>
-      <c r="O1" s="108" t="s">
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="129"/>
+      <c r="N1" s="130"/>
+      <c r="O1" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="110"/>
-      <c r="S1" s="117" t="s">
+      <c r="P1" s="136"/>
+      <c r="Q1" s="136"/>
+      <c r="R1" s="137"/>
+      <c r="S1" s="144" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="118"/>
-      <c r="U1" s="118"/>
-      <c r="V1" s="118"/>
-      <c r="W1" s="118"/>
-      <c r="X1" s="118"/>
-      <c r="Y1" s="118"/>
-      <c r="Z1" s="119"/>
-      <c r="AA1" s="98" t="s">
+      <c r="T1" s="145"/>
+      <c r="U1" s="145"/>
+      <c r="V1" s="145"/>
+      <c r="W1" s="145"/>
+      <c r="X1" s="145"/>
+      <c r="Y1" s="145"/>
+      <c r="Z1" s="146"/>
+      <c r="AA1" s="125" t="s">
         <v>17</v>
       </c>
-      <c r="AB1" s="100"/>
-      <c r="AC1" s="126" t="str">
+      <c r="AB1" s="127"/>
+      <c r="AC1" s="153" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="127"/>
-      <c r="AE1" s="127"/>
-      <c r="AF1" s="128"/>
-      <c r="AG1" s="91">
+      <c r="AD1" s="154"/>
+      <c r="AE1" s="154"/>
+      <c r="AF1" s="155"/>
+      <c r="AG1" s="118">
         <f>IF(D8="","",D8)</f>
         <v>43593</v>
       </c>
-      <c r="AH1" s="92"/>
-      <c r="AI1" s="93"/>
+      <c r="AH1" s="119"/>
+      <c r="AI1" s="120"/>
       <c r="AJ1" s="7"/>
       <c r="AK1" s="7"/>
       <c r="AL1" s="7"/>
@@ -2786,53 +2786,53 @@
       <c r="AN1" s="8"/>
     </row>
     <row r="2" spans="1:40" s="26" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="125" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="101" t="s">
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="128" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="111"/>
-      <c r="P2" s="112"/>
-      <c r="Q2" s="112"/>
-      <c r="R2" s="113"/>
-      <c r="S2" s="120"/>
-      <c r="T2" s="121"/>
-      <c r="U2" s="121"/>
-      <c r="V2" s="121"/>
-      <c r="W2" s="121"/>
-      <c r="X2" s="121"/>
-      <c r="Y2" s="121"/>
-      <c r="Z2" s="122"/>
-      <c r="AA2" s="98" t="s">
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="129"/>
+      <c r="K2" s="129"/>
+      <c r="L2" s="129"/>
+      <c r="M2" s="129"/>
+      <c r="N2" s="130"/>
+      <c r="O2" s="138"/>
+      <c r="P2" s="139"/>
+      <c r="Q2" s="139"/>
+      <c r="R2" s="140"/>
+      <c r="S2" s="147"/>
+      <c r="T2" s="148"/>
+      <c r="U2" s="148"/>
+      <c r="V2" s="148"/>
+      <c r="W2" s="148"/>
+      <c r="X2" s="148"/>
+      <c r="Y2" s="148"/>
+      <c r="Z2" s="149"/>
+      <c r="AA2" s="125" t="s">
         <v>20</v>
       </c>
-      <c r="AB2" s="100"/>
-      <c r="AC2" s="104" t="str">
+      <c r="AB2" s="127"/>
+      <c r="AC2" s="131" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="105"/>
-      <c r="AE2" s="105"/>
-      <c r="AF2" s="106"/>
-      <c r="AG2" s="91" t="str">
+      <c r="AD2" s="132"/>
+      <c r="AE2" s="132"/>
+      <c r="AF2" s="133"/>
+      <c r="AG2" s="118" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="92"/>
-      <c r="AI2" s="93"/>
+      <c r="AH2" s="119"/>
+      <c r="AI2" s="120"/>
       <c r="AJ2" s="7"/>
       <c r="AK2" s="7"/>
       <c r="AL2" s="7"/>
@@ -2840,43 +2840,43 @@
       <c r="AN2" s="7"/>
     </row>
     <row r="3" spans="1:40" s="26" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="125" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="102"/>
-      <c r="M3" s="102"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="114"/>
-      <c r="P3" s="115"/>
-      <c r="Q3" s="115"/>
-      <c r="R3" s="116"/>
-      <c r="S3" s="123"/>
-      <c r="T3" s="124"/>
-      <c r="U3" s="124"/>
-      <c r="V3" s="124"/>
-      <c r="W3" s="124"/>
-      <c r="X3" s="124"/>
-      <c r="Y3" s="124"/>
-      <c r="Z3" s="125"/>
-      <c r="AA3" s="98"/>
-      <c r="AB3" s="100"/>
-      <c r="AC3" s="126"/>
-      <c r="AD3" s="127"/>
-      <c r="AE3" s="127"/>
-      <c r="AF3" s="128"/>
-      <c r="AG3" s="91"/>
-      <c r="AH3" s="92"/>
-      <c r="AI3" s="93"/>
+      <c r="B3" s="126"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="129"/>
+      <c r="J3" s="129"/>
+      <c r="K3" s="129"/>
+      <c r="L3" s="129"/>
+      <c r="M3" s="129"/>
+      <c r="N3" s="130"/>
+      <c r="O3" s="141"/>
+      <c r="P3" s="142"/>
+      <c r="Q3" s="142"/>
+      <c r="R3" s="143"/>
+      <c r="S3" s="150"/>
+      <c r="T3" s="151"/>
+      <c r="U3" s="151"/>
+      <c r="V3" s="151"/>
+      <c r="W3" s="151"/>
+      <c r="X3" s="151"/>
+      <c r="Y3" s="151"/>
+      <c r="Z3" s="152"/>
+      <c r="AA3" s="125"/>
+      <c r="AB3" s="127"/>
+      <c r="AC3" s="153"/>
+      <c r="AD3" s="154"/>
+      <c r="AE3" s="154"/>
+      <c r="AF3" s="155"/>
+      <c r="AG3" s="118"/>
+      <c r="AH3" s="119"/>
+      <c r="AI3" s="120"/>
       <c r="AJ3" s="7"/>
       <c r="AK3" s="7"/>
       <c r="AL3" s="7"/>
@@ -2913,1190 +2913,1034 @@
       <c r="A7" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="94" t="s">
+      <c r="B7" s="121" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="95"/>
-      <c r="D7" s="94" t="s">
+      <c r="C7" s="122"/>
+      <c r="D7" s="121" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="96"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="94" t="s">
+      <c r="E7" s="123"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="121" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="96"/>
-      <c r="I7" s="95"/>
-      <c r="J7" s="97" t="s">
+      <c r="H7" s="123"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="124" t="s">
         <v>27</v>
       </c>
-      <c r="K7" s="96"/>
-      <c r="L7" s="96"/>
-      <c r="M7" s="96"/>
-      <c r="N7" s="96"/>
-      <c r="O7" s="96"/>
-      <c r="P7" s="95"/>
-      <c r="Q7" s="94" t="s">
+      <c r="K7" s="123"/>
+      <c r="L7" s="123"/>
+      <c r="M7" s="123"/>
+      <c r="N7" s="123"/>
+      <c r="O7" s="123"/>
+      <c r="P7" s="122"/>
+      <c r="Q7" s="121" t="s">
         <v>28</v>
       </c>
-      <c r="R7" s="96"/>
-      <c r="S7" s="96"/>
-      <c r="T7" s="96"/>
-      <c r="U7" s="96"/>
-      <c r="V7" s="96"/>
-      <c r="W7" s="96"/>
-      <c r="X7" s="96"/>
-      <c r="Y7" s="96"/>
-      <c r="Z7" s="96"/>
-      <c r="AA7" s="96"/>
-      <c r="AB7" s="96"/>
-      <c r="AC7" s="96"/>
-      <c r="AD7" s="96"/>
-      <c r="AE7" s="95"/>
-      <c r="AF7" s="94" t="s">
+      <c r="R7" s="123"/>
+      <c r="S7" s="123"/>
+      <c r="T7" s="123"/>
+      <c r="U7" s="123"/>
+      <c r="V7" s="123"/>
+      <c r="W7" s="123"/>
+      <c r="X7" s="123"/>
+      <c r="Y7" s="123"/>
+      <c r="Z7" s="123"/>
+      <c r="AA7" s="123"/>
+      <c r="AB7" s="123"/>
+      <c r="AC7" s="123"/>
+      <c r="AD7" s="123"/>
+      <c r="AE7" s="122"/>
+      <c r="AF7" s="121" t="s">
         <v>29</v>
       </c>
-      <c r="AG7" s="96"/>
-      <c r="AH7" s="96"/>
-      <c r="AI7" s="95"/>
+      <c r="AG7" s="123"/>
+      <c r="AH7" s="123"/>
+      <c r="AI7" s="122"/>
     </row>
     <row r="8" spans="1:40" s="16" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="20">
         <v>1</v>
       </c>
-      <c r="B8" s="141" t="s">
+      <c r="B8" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="142"/>
-      <c r="D8" s="143">
+      <c r="C8" s="105"/>
+      <c r="D8" s="106">
         <v>43593</v>
       </c>
-      <c r="E8" s="144"/>
-      <c r="F8" s="145"/>
-      <c r="G8" s="146" t="s">
+      <c r="E8" s="107"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="109" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="147"/>
-      <c r="I8" s="148"/>
-      <c r="J8" s="149" t="s">
+      <c r="H8" s="110"/>
+      <c r="I8" s="111"/>
+      <c r="J8" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="K8" s="150"/>
-      <c r="L8" s="150"/>
-      <c r="M8" s="150"/>
-      <c r="N8" s="150"/>
-      <c r="O8" s="150"/>
-      <c r="P8" s="151"/>
-      <c r="Q8" s="152" t="s">
+      <c r="K8" s="113"/>
+      <c r="L8" s="113"/>
+      <c r="M8" s="113"/>
+      <c r="N8" s="113"/>
+      <c r="O8" s="113"/>
+      <c r="P8" s="114"/>
+      <c r="Q8" s="115" t="s">
         <v>33</v>
       </c>
-      <c r="R8" s="153"/>
-      <c r="S8" s="153"/>
-      <c r="T8" s="153"/>
-      <c r="U8" s="153"/>
-      <c r="V8" s="153"/>
-      <c r="W8" s="153"/>
-      <c r="X8" s="153"/>
-      <c r="Y8" s="153"/>
-      <c r="Z8" s="153"/>
-      <c r="AA8" s="153"/>
-      <c r="AB8" s="153"/>
-      <c r="AC8" s="153"/>
-      <c r="AD8" s="153"/>
-      <c r="AE8" s="154"/>
-      <c r="AF8" s="149" t="s">
+      <c r="R8" s="116"/>
+      <c r="S8" s="116"/>
+      <c r="T8" s="116"/>
+      <c r="U8" s="116"/>
+      <c r="V8" s="116"/>
+      <c r="W8" s="116"/>
+      <c r="X8" s="116"/>
+      <c r="Y8" s="116"/>
+      <c r="Z8" s="116"/>
+      <c r="AA8" s="116"/>
+      <c r="AB8" s="116"/>
+      <c r="AC8" s="116"/>
+      <c r="AD8" s="116"/>
+      <c r="AE8" s="117"/>
+      <c r="AF8" s="112" t="s">
         <v>34</v>
       </c>
-      <c r="AG8" s="150"/>
-      <c r="AH8" s="150"/>
-      <c r="AI8" s="151"/>
+      <c r="AG8" s="113"/>
+      <c r="AH8" s="113"/>
+      <c r="AI8" s="114"/>
     </row>
     <row r="9" spans="1:40" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
-      <c r="B9" s="129"/>
-      <c r="C9" s="130"/>
-      <c r="D9" s="131"/>
-      <c r="E9" s="132"/>
-      <c r="F9" s="133"/>
-      <c r="G9" s="131"/>
-      <c r="H9" s="134"/>
-      <c r="I9" s="130"/>
-      <c r="J9" s="135"/>
-      <c r="K9" s="136"/>
-      <c r="L9" s="136"/>
-      <c r="M9" s="136"/>
-      <c r="N9" s="136"/>
-      <c r="O9" s="136"/>
-      <c r="P9" s="137"/>
-      <c r="Q9" s="138"/>
-      <c r="R9" s="139"/>
-      <c r="S9" s="139"/>
-      <c r="T9" s="139"/>
-      <c r="U9" s="139"/>
-      <c r="V9" s="139"/>
-      <c r="W9" s="139"/>
-      <c r="X9" s="139"/>
-      <c r="Y9" s="139"/>
-      <c r="Z9" s="139"/>
-      <c r="AA9" s="139"/>
-      <c r="AB9" s="139"/>
-      <c r="AC9" s="139"/>
-      <c r="AD9" s="139"/>
-      <c r="AE9" s="140"/>
-      <c r="AF9" s="135"/>
-      <c r="AG9" s="136"/>
-      <c r="AH9" s="136"/>
-      <c r="AI9" s="137"/>
+      <c r="B9" s="91"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="96"/>
+      <c r="I9" s="92"/>
+      <c r="J9" s="97"/>
+      <c r="K9" s="98"/>
+      <c r="L9" s="98"/>
+      <c r="M9" s="98"/>
+      <c r="N9" s="98"/>
+      <c r="O9" s="98"/>
+      <c r="P9" s="99"/>
+      <c r="Q9" s="100"/>
+      <c r="R9" s="101"/>
+      <c r="S9" s="101"/>
+      <c r="T9" s="101"/>
+      <c r="U9" s="101"/>
+      <c r="V9" s="101"/>
+      <c r="W9" s="101"/>
+      <c r="X9" s="101"/>
+      <c r="Y9" s="101"/>
+      <c r="Z9" s="101"/>
+      <c r="AA9" s="101"/>
+      <c r="AB9" s="101"/>
+      <c r="AC9" s="101"/>
+      <c r="AD9" s="101"/>
+      <c r="AE9" s="102"/>
+      <c r="AF9" s="97"/>
+      <c r="AG9" s="98"/>
+      <c r="AH9" s="98"/>
+      <c r="AI9" s="99"/>
     </row>
     <row r="10" spans="1:40" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
-      <c r="B10" s="129"/>
-      <c r="C10" s="130"/>
-      <c r="D10" s="131"/>
-      <c r="E10" s="132"/>
-      <c r="F10" s="133"/>
-      <c r="G10" s="129"/>
-      <c r="H10" s="134"/>
-      <c r="I10" s="130"/>
-      <c r="J10" s="135"/>
-      <c r="K10" s="136"/>
-      <c r="L10" s="136"/>
-      <c r="M10" s="136"/>
-      <c r="N10" s="136"/>
-      <c r="O10" s="136"/>
-      <c r="P10" s="137"/>
-      <c r="Q10" s="138"/>
-      <c r="R10" s="139"/>
-      <c r="S10" s="139"/>
-      <c r="T10" s="139"/>
-      <c r="U10" s="139"/>
-      <c r="V10" s="139"/>
-      <c r="W10" s="139"/>
-      <c r="X10" s="139"/>
-      <c r="Y10" s="139"/>
-      <c r="Z10" s="139"/>
-      <c r="AA10" s="139"/>
-      <c r="AB10" s="139"/>
-      <c r="AC10" s="139"/>
-      <c r="AD10" s="139"/>
-      <c r="AE10" s="140"/>
-      <c r="AF10" s="135"/>
-      <c r="AG10" s="136"/>
-      <c r="AH10" s="136"/>
-      <c r="AI10" s="137"/>
+      <c r="B10" s="91"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="95"/>
+      <c r="G10" s="91"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="92"/>
+      <c r="J10" s="97"/>
+      <c r="K10" s="98"/>
+      <c r="L10" s="98"/>
+      <c r="M10" s="98"/>
+      <c r="N10" s="98"/>
+      <c r="O10" s="98"/>
+      <c r="P10" s="99"/>
+      <c r="Q10" s="100"/>
+      <c r="R10" s="101"/>
+      <c r="S10" s="101"/>
+      <c r="T10" s="101"/>
+      <c r="U10" s="101"/>
+      <c r="V10" s="101"/>
+      <c r="W10" s="101"/>
+      <c r="X10" s="101"/>
+      <c r="Y10" s="101"/>
+      <c r="Z10" s="101"/>
+      <c r="AA10" s="101"/>
+      <c r="AB10" s="101"/>
+      <c r="AC10" s="101"/>
+      <c r="AD10" s="101"/>
+      <c r="AE10" s="102"/>
+      <c r="AF10" s="97"/>
+      <c r="AG10" s="98"/>
+      <c r="AH10" s="98"/>
+      <c r="AI10" s="99"/>
     </row>
     <row r="11" spans="1:40" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
-      <c r="B11" s="129"/>
-      <c r="C11" s="130"/>
-      <c r="D11" s="131"/>
-      <c r="E11" s="132"/>
-      <c r="F11" s="133"/>
-      <c r="G11" s="129"/>
-      <c r="H11" s="134"/>
-      <c r="I11" s="130"/>
-      <c r="J11" s="135"/>
-      <c r="K11" s="136"/>
-      <c r="L11" s="136"/>
-      <c r="M11" s="136"/>
-      <c r="N11" s="136"/>
-      <c r="O11" s="136"/>
-      <c r="P11" s="137"/>
-      <c r="Q11" s="138"/>
-      <c r="R11" s="139"/>
-      <c r="S11" s="139"/>
-      <c r="T11" s="139"/>
-      <c r="U11" s="139"/>
-      <c r="V11" s="139"/>
-      <c r="W11" s="139"/>
-      <c r="X11" s="139"/>
-      <c r="Y11" s="139"/>
-      <c r="Z11" s="139"/>
-      <c r="AA11" s="139"/>
-      <c r="AB11" s="139"/>
-      <c r="AC11" s="139"/>
-      <c r="AD11" s="139"/>
-      <c r="AE11" s="140"/>
-      <c r="AF11" s="135"/>
-      <c r="AG11" s="136"/>
-      <c r="AH11" s="136"/>
-      <c r="AI11" s="137"/>
+      <c r="B11" s="91"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="95"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="96"/>
+      <c r="I11" s="92"/>
+      <c r="J11" s="97"/>
+      <c r="K11" s="98"/>
+      <c r="L11" s="98"/>
+      <c r="M11" s="98"/>
+      <c r="N11" s="98"/>
+      <c r="O11" s="98"/>
+      <c r="P11" s="99"/>
+      <c r="Q11" s="100"/>
+      <c r="R11" s="101"/>
+      <c r="S11" s="101"/>
+      <c r="T11" s="101"/>
+      <c r="U11" s="101"/>
+      <c r="V11" s="101"/>
+      <c r="W11" s="101"/>
+      <c r="X11" s="101"/>
+      <c r="Y11" s="101"/>
+      <c r="Z11" s="101"/>
+      <c r="AA11" s="101"/>
+      <c r="AB11" s="101"/>
+      <c r="AC11" s="101"/>
+      <c r="AD11" s="101"/>
+      <c r="AE11" s="102"/>
+      <c r="AF11" s="97"/>
+      <c r="AG11" s="98"/>
+      <c r="AH11" s="98"/>
+      <c r="AI11" s="99"/>
     </row>
     <row r="12" spans="1:40" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
-      <c r="B12" s="129"/>
-      <c r="C12" s="130"/>
-      <c r="D12" s="131"/>
-      <c r="E12" s="132"/>
-      <c r="F12" s="133"/>
-      <c r="G12" s="129"/>
-      <c r="H12" s="134"/>
-      <c r="I12" s="130"/>
-      <c r="J12" s="135"/>
-      <c r="K12" s="136"/>
-      <c r="L12" s="136"/>
-      <c r="M12" s="136"/>
-      <c r="N12" s="136"/>
-      <c r="O12" s="136"/>
-      <c r="P12" s="137"/>
-      <c r="Q12" s="138"/>
-      <c r="R12" s="139"/>
-      <c r="S12" s="139"/>
-      <c r="T12" s="139"/>
-      <c r="U12" s="139"/>
-      <c r="V12" s="139"/>
-      <c r="W12" s="139"/>
-      <c r="X12" s="139"/>
-      <c r="Y12" s="139"/>
-      <c r="Z12" s="139"/>
-      <c r="AA12" s="139"/>
-      <c r="AB12" s="139"/>
-      <c r="AC12" s="139"/>
-      <c r="AD12" s="139"/>
-      <c r="AE12" s="140"/>
-      <c r="AF12" s="135"/>
-      <c r="AG12" s="136"/>
-      <c r="AH12" s="136"/>
-      <c r="AI12" s="137"/>
+      <c r="B12" s="91"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="93"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="91"/>
+      <c r="H12" s="96"/>
+      <c r="I12" s="92"/>
+      <c r="J12" s="97"/>
+      <c r="K12" s="98"/>
+      <c r="L12" s="98"/>
+      <c r="M12" s="98"/>
+      <c r="N12" s="98"/>
+      <c r="O12" s="98"/>
+      <c r="P12" s="99"/>
+      <c r="Q12" s="100"/>
+      <c r="R12" s="101"/>
+      <c r="S12" s="101"/>
+      <c r="T12" s="101"/>
+      <c r="U12" s="101"/>
+      <c r="V12" s="101"/>
+      <c r="W12" s="101"/>
+      <c r="X12" s="101"/>
+      <c r="Y12" s="101"/>
+      <c r="Z12" s="101"/>
+      <c r="AA12" s="101"/>
+      <c r="AB12" s="101"/>
+      <c r="AC12" s="101"/>
+      <c r="AD12" s="101"/>
+      <c r="AE12" s="102"/>
+      <c r="AF12" s="97"/>
+      <c r="AG12" s="98"/>
+      <c r="AH12" s="98"/>
+      <c r="AI12" s="99"/>
     </row>
     <row r="13" spans="1:40" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
-      <c r="B13" s="129"/>
-      <c r="C13" s="130"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="132"/>
-      <c r="F13" s="133"/>
-      <c r="G13" s="129"/>
-      <c r="H13" s="134"/>
-      <c r="I13" s="130"/>
-      <c r="J13" s="135"/>
-      <c r="K13" s="136"/>
-      <c r="L13" s="136"/>
-      <c r="M13" s="136"/>
-      <c r="N13" s="136"/>
-      <c r="O13" s="136"/>
-      <c r="P13" s="137"/>
-      <c r="Q13" s="138"/>
-      <c r="R13" s="139"/>
-      <c r="S13" s="139"/>
-      <c r="T13" s="139"/>
-      <c r="U13" s="139"/>
-      <c r="V13" s="139"/>
-      <c r="W13" s="139"/>
-      <c r="X13" s="139"/>
-      <c r="Y13" s="139"/>
-      <c r="Z13" s="139"/>
-      <c r="AA13" s="139"/>
-      <c r="AB13" s="139"/>
-      <c r="AC13" s="139"/>
-      <c r="AD13" s="139"/>
-      <c r="AE13" s="140"/>
-      <c r="AF13" s="135"/>
-      <c r="AG13" s="136"/>
-      <c r="AH13" s="136"/>
-      <c r="AI13" s="137"/>
+      <c r="B13" s="91"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="96"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="97"/>
+      <c r="K13" s="98"/>
+      <c r="L13" s="98"/>
+      <c r="M13" s="98"/>
+      <c r="N13" s="98"/>
+      <c r="O13" s="98"/>
+      <c r="P13" s="99"/>
+      <c r="Q13" s="100"/>
+      <c r="R13" s="101"/>
+      <c r="S13" s="101"/>
+      <c r="T13" s="101"/>
+      <c r="U13" s="101"/>
+      <c r="V13" s="101"/>
+      <c r="W13" s="101"/>
+      <c r="X13" s="101"/>
+      <c r="Y13" s="101"/>
+      <c r="Z13" s="101"/>
+      <c r="AA13" s="101"/>
+      <c r="AB13" s="101"/>
+      <c r="AC13" s="101"/>
+      <c r="AD13" s="101"/>
+      <c r="AE13" s="102"/>
+      <c r="AF13" s="97"/>
+      <c r="AG13" s="98"/>
+      <c r="AH13" s="98"/>
+      <c r="AI13" s="99"/>
     </row>
     <row r="14" spans="1:40" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
-      <c r="B14" s="129"/>
-      <c r="C14" s="130"/>
-      <c r="D14" s="131"/>
-      <c r="E14" s="132"/>
-      <c r="F14" s="133"/>
-      <c r="G14" s="129"/>
-      <c r="H14" s="134"/>
-      <c r="I14" s="130"/>
-      <c r="J14" s="135"/>
-      <c r="K14" s="136"/>
-      <c r="L14" s="136"/>
-      <c r="M14" s="136"/>
-      <c r="N14" s="136"/>
-      <c r="O14" s="136"/>
-      <c r="P14" s="137"/>
-      <c r="Q14" s="138"/>
-      <c r="R14" s="139"/>
-      <c r="S14" s="139"/>
-      <c r="T14" s="139"/>
-      <c r="U14" s="139"/>
-      <c r="V14" s="139"/>
-      <c r="W14" s="139"/>
-      <c r="X14" s="139"/>
-      <c r="Y14" s="139"/>
-      <c r="Z14" s="139"/>
-      <c r="AA14" s="139"/>
-      <c r="AB14" s="139"/>
-      <c r="AC14" s="139"/>
-      <c r="AD14" s="139"/>
-      <c r="AE14" s="140"/>
-      <c r="AF14" s="135"/>
-      <c r="AG14" s="136"/>
-      <c r="AH14" s="136"/>
-      <c r="AI14" s="137"/>
+      <c r="B14" s="91"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="93"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="96"/>
+      <c r="I14" s="92"/>
+      <c r="J14" s="97"/>
+      <c r="K14" s="98"/>
+      <c r="L14" s="98"/>
+      <c r="M14" s="98"/>
+      <c r="N14" s="98"/>
+      <c r="O14" s="98"/>
+      <c r="P14" s="99"/>
+      <c r="Q14" s="100"/>
+      <c r="R14" s="101"/>
+      <c r="S14" s="101"/>
+      <c r="T14" s="101"/>
+      <c r="U14" s="101"/>
+      <c r="V14" s="101"/>
+      <c r="W14" s="101"/>
+      <c r="X14" s="101"/>
+      <c r="Y14" s="101"/>
+      <c r="Z14" s="101"/>
+      <c r="AA14" s="101"/>
+      <c r="AB14" s="101"/>
+      <c r="AC14" s="101"/>
+      <c r="AD14" s="101"/>
+      <c r="AE14" s="102"/>
+      <c r="AF14" s="97"/>
+      <c r="AG14" s="98"/>
+      <c r="AH14" s="98"/>
+      <c r="AI14" s="99"/>
     </row>
     <row r="15" spans="1:40" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
-      <c r="B15" s="129"/>
-      <c r="C15" s="130"/>
-      <c r="D15" s="131"/>
-      <c r="E15" s="132"/>
-      <c r="F15" s="133"/>
-      <c r="G15" s="129"/>
-      <c r="H15" s="134"/>
-      <c r="I15" s="130"/>
-      <c r="J15" s="135"/>
-      <c r="K15" s="136"/>
-      <c r="L15" s="136"/>
-      <c r="M15" s="136"/>
-      <c r="N15" s="136"/>
-      <c r="O15" s="136"/>
-      <c r="P15" s="137"/>
-      <c r="Q15" s="138"/>
-      <c r="R15" s="139"/>
-      <c r="S15" s="139"/>
-      <c r="T15" s="139"/>
-      <c r="U15" s="139"/>
-      <c r="V15" s="139"/>
-      <c r="W15" s="139"/>
-      <c r="X15" s="139"/>
-      <c r="Y15" s="139"/>
-      <c r="Z15" s="139"/>
-      <c r="AA15" s="139"/>
-      <c r="AB15" s="139"/>
-      <c r="AC15" s="139"/>
-      <c r="AD15" s="139"/>
-      <c r="AE15" s="140"/>
-      <c r="AF15" s="135"/>
-      <c r="AG15" s="136"/>
-      <c r="AH15" s="136"/>
-      <c r="AI15" s="137"/>
+      <c r="B15" s="91"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="93"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="95"/>
+      <c r="G15" s="91"/>
+      <c r="H15" s="96"/>
+      <c r="I15" s="92"/>
+      <c r="J15" s="97"/>
+      <c r="K15" s="98"/>
+      <c r="L15" s="98"/>
+      <c r="M15" s="98"/>
+      <c r="N15" s="98"/>
+      <c r="O15" s="98"/>
+      <c r="P15" s="99"/>
+      <c r="Q15" s="100"/>
+      <c r="R15" s="101"/>
+      <c r="S15" s="101"/>
+      <c r="T15" s="101"/>
+      <c r="U15" s="101"/>
+      <c r="V15" s="101"/>
+      <c r="W15" s="101"/>
+      <c r="X15" s="101"/>
+      <c r="Y15" s="101"/>
+      <c r="Z15" s="101"/>
+      <c r="AA15" s="101"/>
+      <c r="AB15" s="101"/>
+      <c r="AC15" s="101"/>
+      <c r="AD15" s="101"/>
+      <c r="AE15" s="102"/>
+      <c r="AF15" s="97"/>
+      <c r="AG15" s="98"/>
+      <c r="AH15" s="98"/>
+      <c r="AI15" s="99"/>
     </row>
     <row r="16" spans="1:40" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
-      <c r="B16" s="129"/>
-      <c r="C16" s="130"/>
-      <c r="D16" s="131"/>
-      <c r="E16" s="132"/>
-      <c r="F16" s="133"/>
-      <c r="G16" s="129"/>
-      <c r="H16" s="134"/>
-      <c r="I16" s="130"/>
-      <c r="J16" s="135"/>
-      <c r="K16" s="136"/>
-      <c r="L16" s="136"/>
-      <c r="M16" s="136"/>
-      <c r="N16" s="136"/>
-      <c r="O16" s="136"/>
-      <c r="P16" s="137"/>
-      <c r="Q16" s="138"/>
-      <c r="R16" s="139"/>
-      <c r="S16" s="139"/>
-      <c r="T16" s="139"/>
-      <c r="U16" s="139"/>
-      <c r="V16" s="139"/>
-      <c r="W16" s="139"/>
-      <c r="X16" s="139"/>
-      <c r="Y16" s="139"/>
-      <c r="Z16" s="139"/>
-      <c r="AA16" s="139"/>
-      <c r="AB16" s="139"/>
-      <c r="AC16" s="139"/>
-      <c r="AD16" s="139"/>
-      <c r="AE16" s="140"/>
-      <c r="AF16" s="135"/>
-      <c r="AG16" s="136"/>
-      <c r="AH16" s="136"/>
-      <c r="AI16" s="137"/>
+      <c r="B16" s="91"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="94"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="91"/>
+      <c r="H16" s="96"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="97"/>
+      <c r="K16" s="98"/>
+      <c r="L16" s="98"/>
+      <c r="M16" s="98"/>
+      <c r="N16" s="98"/>
+      <c r="O16" s="98"/>
+      <c r="P16" s="99"/>
+      <c r="Q16" s="100"/>
+      <c r="R16" s="101"/>
+      <c r="S16" s="101"/>
+      <c r="T16" s="101"/>
+      <c r="U16" s="101"/>
+      <c r="V16" s="101"/>
+      <c r="W16" s="101"/>
+      <c r="X16" s="101"/>
+      <c r="Y16" s="101"/>
+      <c r="Z16" s="101"/>
+      <c r="AA16" s="101"/>
+      <c r="AB16" s="101"/>
+      <c r="AC16" s="101"/>
+      <c r="AD16" s="101"/>
+      <c r="AE16" s="102"/>
+      <c r="AF16" s="97"/>
+      <c r="AG16" s="98"/>
+      <c r="AH16" s="98"/>
+      <c r="AI16" s="99"/>
     </row>
     <row r="17" spans="1:35" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="15"/>
-      <c r="B17" s="129"/>
-      <c r="C17" s="130"/>
-      <c r="D17" s="131"/>
-      <c r="E17" s="132"/>
-      <c r="F17" s="133"/>
-      <c r="G17" s="129"/>
-      <c r="H17" s="134"/>
-      <c r="I17" s="130"/>
-      <c r="J17" s="135"/>
-      <c r="K17" s="136"/>
-      <c r="L17" s="136"/>
-      <c r="M17" s="136"/>
-      <c r="N17" s="136"/>
-      <c r="O17" s="136"/>
-      <c r="P17" s="137"/>
-      <c r="Q17" s="138"/>
-      <c r="R17" s="139"/>
-      <c r="S17" s="139"/>
-      <c r="T17" s="139"/>
-      <c r="U17" s="139"/>
-      <c r="V17" s="139"/>
-      <c r="W17" s="139"/>
-      <c r="X17" s="139"/>
-      <c r="Y17" s="139"/>
-      <c r="Z17" s="139"/>
-      <c r="AA17" s="139"/>
-      <c r="AB17" s="139"/>
-      <c r="AC17" s="139"/>
-      <c r="AD17" s="139"/>
-      <c r="AE17" s="140"/>
-      <c r="AF17" s="135"/>
-      <c r="AG17" s="136"/>
-      <c r="AH17" s="136"/>
-      <c r="AI17" s="137"/>
+      <c r="B17" s="91"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="94"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="92"/>
+      <c r="J17" s="97"/>
+      <c r="K17" s="98"/>
+      <c r="L17" s="98"/>
+      <c r="M17" s="98"/>
+      <c r="N17" s="98"/>
+      <c r="O17" s="98"/>
+      <c r="P17" s="99"/>
+      <c r="Q17" s="100"/>
+      <c r="R17" s="101"/>
+      <c r="S17" s="101"/>
+      <c r="T17" s="101"/>
+      <c r="U17" s="101"/>
+      <c r="V17" s="101"/>
+      <c r="W17" s="101"/>
+      <c r="X17" s="101"/>
+      <c r="Y17" s="101"/>
+      <c r="Z17" s="101"/>
+      <c r="AA17" s="101"/>
+      <c r="AB17" s="101"/>
+      <c r="AC17" s="101"/>
+      <c r="AD17" s="101"/>
+      <c r="AE17" s="102"/>
+      <c r="AF17" s="97"/>
+      <c r="AG17" s="98"/>
+      <c r="AH17" s="98"/>
+      <c r="AI17" s="99"/>
     </row>
     <row r="18" spans="1:35" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="15"/>
-      <c r="B18" s="129"/>
-      <c r="C18" s="130"/>
-      <c r="D18" s="131"/>
-      <c r="E18" s="132"/>
-      <c r="F18" s="133"/>
-      <c r="G18" s="129"/>
-      <c r="H18" s="134"/>
-      <c r="I18" s="130"/>
-      <c r="J18" s="135"/>
-      <c r="K18" s="136"/>
-      <c r="L18" s="136"/>
-      <c r="M18" s="136"/>
-      <c r="N18" s="136"/>
-      <c r="O18" s="136"/>
-      <c r="P18" s="137"/>
-      <c r="Q18" s="138"/>
-      <c r="R18" s="139"/>
-      <c r="S18" s="139"/>
-      <c r="T18" s="139"/>
-      <c r="U18" s="139"/>
-      <c r="V18" s="139"/>
-      <c r="W18" s="139"/>
-      <c r="X18" s="139"/>
-      <c r="Y18" s="139"/>
-      <c r="Z18" s="139"/>
-      <c r="AA18" s="139"/>
-      <c r="AB18" s="139"/>
-      <c r="AC18" s="139"/>
-      <c r="AD18" s="139"/>
-      <c r="AE18" s="140"/>
-      <c r="AF18" s="135"/>
-      <c r="AG18" s="136"/>
-      <c r="AH18" s="136"/>
-      <c r="AI18" s="137"/>
+      <c r="B18" s="91"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="94"/>
+      <c r="F18" s="95"/>
+      <c r="G18" s="91"/>
+      <c r="H18" s="96"/>
+      <c r="I18" s="92"/>
+      <c r="J18" s="97"/>
+      <c r="K18" s="98"/>
+      <c r="L18" s="98"/>
+      <c r="M18" s="98"/>
+      <c r="N18" s="98"/>
+      <c r="O18" s="98"/>
+      <c r="P18" s="99"/>
+      <c r="Q18" s="100"/>
+      <c r="R18" s="101"/>
+      <c r="S18" s="101"/>
+      <c r="T18" s="101"/>
+      <c r="U18" s="101"/>
+      <c r="V18" s="101"/>
+      <c r="W18" s="101"/>
+      <c r="X18" s="101"/>
+      <c r="Y18" s="101"/>
+      <c r="Z18" s="101"/>
+      <c r="AA18" s="101"/>
+      <c r="AB18" s="101"/>
+      <c r="AC18" s="101"/>
+      <c r="AD18" s="101"/>
+      <c r="AE18" s="102"/>
+      <c r="AF18" s="97"/>
+      <c r="AG18" s="98"/>
+      <c r="AH18" s="98"/>
+      <c r="AI18" s="99"/>
     </row>
     <row r="19" spans="1:35" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="15"/>
-      <c r="B19" s="129"/>
-      <c r="C19" s="130"/>
-      <c r="D19" s="131"/>
-      <c r="E19" s="132"/>
-      <c r="F19" s="133"/>
-      <c r="G19" s="129"/>
-      <c r="H19" s="134"/>
-      <c r="I19" s="130"/>
-      <c r="J19" s="135"/>
-      <c r="K19" s="136"/>
-      <c r="L19" s="136"/>
-      <c r="M19" s="136"/>
-      <c r="N19" s="136"/>
-      <c r="O19" s="136"/>
-      <c r="P19" s="137"/>
-      <c r="Q19" s="138"/>
-      <c r="R19" s="139"/>
-      <c r="S19" s="139"/>
-      <c r="T19" s="139"/>
-      <c r="U19" s="139"/>
-      <c r="V19" s="139"/>
-      <c r="W19" s="139"/>
-      <c r="X19" s="139"/>
-      <c r="Y19" s="139"/>
-      <c r="Z19" s="139"/>
-      <c r="AA19" s="139"/>
-      <c r="AB19" s="139"/>
-      <c r="AC19" s="139"/>
-      <c r="AD19" s="139"/>
-      <c r="AE19" s="140"/>
-      <c r="AF19" s="135"/>
-      <c r="AG19" s="136"/>
-      <c r="AH19" s="136"/>
-      <c r="AI19" s="137"/>
+      <c r="B19" s="91"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="94"/>
+      <c r="F19" s="95"/>
+      <c r="G19" s="91"/>
+      <c r="H19" s="96"/>
+      <c r="I19" s="92"/>
+      <c r="J19" s="97"/>
+      <c r="K19" s="98"/>
+      <c r="L19" s="98"/>
+      <c r="M19" s="98"/>
+      <c r="N19" s="98"/>
+      <c r="O19" s="98"/>
+      <c r="P19" s="99"/>
+      <c r="Q19" s="100"/>
+      <c r="R19" s="101"/>
+      <c r="S19" s="101"/>
+      <c r="T19" s="101"/>
+      <c r="U19" s="101"/>
+      <c r="V19" s="101"/>
+      <c r="W19" s="101"/>
+      <c r="X19" s="101"/>
+      <c r="Y19" s="101"/>
+      <c r="Z19" s="101"/>
+      <c r="AA19" s="101"/>
+      <c r="AB19" s="101"/>
+      <c r="AC19" s="101"/>
+      <c r="AD19" s="101"/>
+      <c r="AE19" s="102"/>
+      <c r="AF19" s="97"/>
+      <c r="AG19" s="98"/>
+      <c r="AH19" s="98"/>
+      <c r="AI19" s="99"/>
     </row>
     <row r="20" spans="1:35" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="15"/>
-      <c r="B20" s="129"/>
-      <c r="C20" s="130"/>
-      <c r="D20" s="131"/>
-      <c r="E20" s="132"/>
-      <c r="F20" s="133"/>
-      <c r="G20" s="129"/>
-      <c r="H20" s="134"/>
-      <c r="I20" s="130"/>
-      <c r="J20" s="135"/>
-      <c r="K20" s="136"/>
-      <c r="L20" s="136"/>
-      <c r="M20" s="136"/>
-      <c r="N20" s="136"/>
-      <c r="O20" s="136"/>
-      <c r="P20" s="137"/>
-      <c r="Q20" s="138"/>
-      <c r="R20" s="139"/>
-      <c r="S20" s="139"/>
-      <c r="T20" s="139"/>
-      <c r="U20" s="139"/>
-      <c r="V20" s="139"/>
-      <c r="W20" s="139"/>
-      <c r="X20" s="139"/>
-      <c r="Y20" s="139"/>
-      <c r="Z20" s="139"/>
-      <c r="AA20" s="139"/>
-      <c r="AB20" s="139"/>
-      <c r="AC20" s="139"/>
-      <c r="AD20" s="139"/>
-      <c r="AE20" s="140"/>
-      <c r="AF20" s="135"/>
-      <c r="AG20" s="136"/>
-      <c r="AH20" s="136"/>
-      <c r="AI20" s="137"/>
+      <c r="B20" s="91"/>
+      <c r="C20" s="92"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="94"/>
+      <c r="F20" s="95"/>
+      <c r="G20" s="91"/>
+      <c r="H20" s="96"/>
+      <c r="I20" s="92"/>
+      <c r="J20" s="97"/>
+      <c r="K20" s="98"/>
+      <c r="L20" s="98"/>
+      <c r="M20" s="98"/>
+      <c r="N20" s="98"/>
+      <c r="O20" s="98"/>
+      <c r="P20" s="99"/>
+      <c r="Q20" s="100"/>
+      <c r="R20" s="101"/>
+      <c r="S20" s="101"/>
+      <c r="T20" s="101"/>
+      <c r="U20" s="101"/>
+      <c r="V20" s="101"/>
+      <c r="W20" s="101"/>
+      <c r="X20" s="101"/>
+      <c r="Y20" s="101"/>
+      <c r="Z20" s="101"/>
+      <c r="AA20" s="101"/>
+      <c r="AB20" s="101"/>
+      <c r="AC20" s="101"/>
+      <c r="AD20" s="101"/>
+      <c r="AE20" s="102"/>
+      <c r="AF20" s="97"/>
+      <c r="AG20" s="98"/>
+      <c r="AH20" s="98"/>
+      <c r="AI20" s="99"/>
     </row>
     <row r="21" spans="1:35" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="15"/>
-      <c r="B21" s="129"/>
-      <c r="C21" s="130"/>
-      <c r="D21" s="131"/>
-      <c r="E21" s="132"/>
-      <c r="F21" s="133"/>
-      <c r="G21" s="129"/>
-      <c r="H21" s="134"/>
-      <c r="I21" s="130"/>
-      <c r="J21" s="135"/>
-      <c r="K21" s="136"/>
-      <c r="L21" s="136"/>
-      <c r="M21" s="136"/>
-      <c r="N21" s="136"/>
-      <c r="O21" s="136"/>
-      <c r="P21" s="137"/>
-      <c r="Q21" s="138"/>
-      <c r="R21" s="139"/>
-      <c r="S21" s="139"/>
-      <c r="T21" s="139"/>
-      <c r="U21" s="139"/>
-      <c r="V21" s="139"/>
-      <c r="W21" s="139"/>
-      <c r="X21" s="139"/>
-      <c r="Y21" s="139"/>
-      <c r="Z21" s="139"/>
-      <c r="AA21" s="139"/>
-      <c r="AB21" s="139"/>
-      <c r="AC21" s="139"/>
-      <c r="AD21" s="139"/>
-      <c r="AE21" s="140"/>
-      <c r="AF21" s="135"/>
-      <c r="AG21" s="136"/>
-      <c r="AH21" s="136"/>
-      <c r="AI21" s="137"/>
+      <c r="B21" s="91"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="96"/>
+      <c r="I21" s="92"/>
+      <c r="J21" s="97"/>
+      <c r="K21" s="98"/>
+      <c r="L21" s="98"/>
+      <c r="M21" s="98"/>
+      <c r="N21" s="98"/>
+      <c r="O21" s="98"/>
+      <c r="P21" s="99"/>
+      <c r="Q21" s="100"/>
+      <c r="R21" s="101"/>
+      <c r="S21" s="101"/>
+      <c r="T21" s="101"/>
+      <c r="U21" s="101"/>
+      <c r="V21" s="101"/>
+      <c r="W21" s="101"/>
+      <c r="X21" s="101"/>
+      <c r="Y21" s="101"/>
+      <c r="Z21" s="101"/>
+      <c r="AA21" s="101"/>
+      <c r="AB21" s="101"/>
+      <c r="AC21" s="101"/>
+      <c r="AD21" s="101"/>
+      <c r="AE21" s="102"/>
+      <c r="AF21" s="97"/>
+      <c r="AG21" s="98"/>
+      <c r="AH21" s="98"/>
+      <c r="AI21" s="99"/>
     </row>
     <row r="22" spans="1:35" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="15"/>
-      <c r="B22" s="129"/>
-      <c r="C22" s="130"/>
-      <c r="D22" s="131"/>
-      <c r="E22" s="132"/>
-      <c r="F22" s="133"/>
-      <c r="G22" s="129"/>
-      <c r="H22" s="134"/>
-      <c r="I22" s="130"/>
-      <c r="J22" s="135"/>
-      <c r="K22" s="136"/>
-      <c r="L22" s="136"/>
-      <c r="M22" s="136"/>
-      <c r="N22" s="136"/>
-      <c r="O22" s="136"/>
-      <c r="P22" s="137"/>
-      <c r="Q22" s="138"/>
-      <c r="R22" s="139"/>
-      <c r="S22" s="139"/>
-      <c r="T22" s="139"/>
-      <c r="U22" s="139"/>
-      <c r="V22" s="139"/>
-      <c r="W22" s="139"/>
-      <c r="X22" s="139"/>
-      <c r="Y22" s="139"/>
-      <c r="Z22" s="139"/>
-      <c r="AA22" s="139"/>
-      <c r="AB22" s="139"/>
-      <c r="AC22" s="139"/>
-      <c r="AD22" s="139"/>
-      <c r="AE22" s="140"/>
-      <c r="AF22" s="135"/>
-      <c r="AG22" s="136"/>
-      <c r="AH22" s="136"/>
-      <c r="AI22" s="137"/>
+      <c r="B22" s="91"/>
+      <c r="C22" s="92"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="94"/>
+      <c r="F22" s="95"/>
+      <c r="G22" s="91"/>
+      <c r="H22" s="96"/>
+      <c r="I22" s="92"/>
+      <c r="J22" s="97"/>
+      <c r="K22" s="98"/>
+      <c r="L22" s="98"/>
+      <c r="M22" s="98"/>
+      <c r="N22" s="98"/>
+      <c r="O22" s="98"/>
+      <c r="P22" s="99"/>
+      <c r="Q22" s="100"/>
+      <c r="R22" s="101"/>
+      <c r="S22" s="101"/>
+      <c r="T22" s="101"/>
+      <c r="U22" s="101"/>
+      <c r="V22" s="101"/>
+      <c r="W22" s="101"/>
+      <c r="X22" s="101"/>
+      <c r="Y22" s="101"/>
+      <c r="Z22" s="101"/>
+      <c r="AA22" s="101"/>
+      <c r="AB22" s="101"/>
+      <c r="AC22" s="101"/>
+      <c r="AD22" s="101"/>
+      <c r="AE22" s="102"/>
+      <c r="AF22" s="97"/>
+      <c r="AG22" s="98"/>
+      <c r="AH22" s="98"/>
+      <c r="AI22" s="99"/>
     </row>
     <row r="23" spans="1:35" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="15"/>
-      <c r="B23" s="129"/>
-      <c r="C23" s="130"/>
-      <c r="D23" s="131"/>
-      <c r="E23" s="132"/>
-      <c r="F23" s="133"/>
-      <c r="G23" s="129"/>
-      <c r="H23" s="134"/>
-      <c r="I23" s="130"/>
-      <c r="J23" s="135"/>
-      <c r="K23" s="136"/>
-      <c r="L23" s="136"/>
-      <c r="M23" s="136"/>
-      <c r="N23" s="136"/>
-      <c r="O23" s="136"/>
-      <c r="P23" s="137"/>
-      <c r="Q23" s="138"/>
-      <c r="R23" s="139"/>
-      <c r="S23" s="139"/>
-      <c r="T23" s="139"/>
-      <c r="U23" s="139"/>
-      <c r="V23" s="139"/>
-      <c r="W23" s="139"/>
-      <c r="X23" s="139"/>
-      <c r="Y23" s="139"/>
-      <c r="Z23" s="139"/>
-      <c r="AA23" s="139"/>
-      <c r="AB23" s="139"/>
-      <c r="AC23" s="139"/>
-      <c r="AD23" s="139"/>
-      <c r="AE23" s="140"/>
-      <c r="AF23" s="135"/>
-      <c r="AG23" s="136"/>
-      <c r="AH23" s="136"/>
-      <c r="AI23" s="137"/>
+      <c r="B23" s="91"/>
+      <c r="C23" s="92"/>
+      <c r="D23" s="93"/>
+      <c r="E23" s="94"/>
+      <c r="F23" s="95"/>
+      <c r="G23" s="91"/>
+      <c r="H23" s="96"/>
+      <c r="I23" s="92"/>
+      <c r="J23" s="97"/>
+      <c r="K23" s="98"/>
+      <c r="L23" s="98"/>
+      <c r="M23" s="98"/>
+      <c r="N23" s="98"/>
+      <c r="O23" s="98"/>
+      <c r="P23" s="99"/>
+      <c r="Q23" s="100"/>
+      <c r="R23" s="101"/>
+      <c r="S23" s="101"/>
+      <c r="T23" s="101"/>
+      <c r="U23" s="101"/>
+      <c r="V23" s="101"/>
+      <c r="W23" s="101"/>
+      <c r="X23" s="101"/>
+      <c r="Y23" s="101"/>
+      <c r="Z23" s="101"/>
+      <c r="AA23" s="101"/>
+      <c r="AB23" s="101"/>
+      <c r="AC23" s="101"/>
+      <c r="AD23" s="101"/>
+      <c r="AE23" s="102"/>
+      <c r="AF23" s="97"/>
+      <c r="AG23" s="98"/>
+      <c r="AH23" s="98"/>
+      <c r="AI23" s="99"/>
     </row>
     <row r="24" spans="1:35" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="15"/>
-      <c r="B24" s="129"/>
-      <c r="C24" s="130"/>
-      <c r="D24" s="131"/>
-      <c r="E24" s="132"/>
-      <c r="F24" s="133"/>
-      <c r="G24" s="129"/>
-      <c r="H24" s="134"/>
-      <c r="I24" s="130"/>
-      <c r="J24" s="135"/>
-      <c r="K24" s="136"/>
-      <c r="L24" s="136"/>
-      <c r="M24" s="136"/>
-      <c r="N24" s="136"/>
-      <c r="O24" s="136"/>
-      <c r="P24" s="137"/>
-      <c r="Q24" s="138"/>
-      <c r="R24" s="139"/>
-      <c r="S24" s="139"/>
-      <c r="T24" s="139"/>
-      <c r="U24" s="139"/>
-      <c r="V24" s="139"/>
-      <c r="W24" s="139"/>
-      <c r="X24" s="139"/>
-      <c r="Y24" s="139"/>
-      <c r="Z24" s="139"/>
-      <c r="AA24" s="139"/>
-      <c r="AB24" s="139"/>
-      <c r="AC24" s="139"/>
-      <c r="AD24" s="139"/>
-      <c r="AE24" s="140"/>
-      <c r="AF24" s="135"/>
-      <c r="AG24" s="136"/>
-      <c r="AH24" s="136"/>
-      <c r="AI24" s="137"/>
+      <c r="B24" s="91"/>
+      <c r="C24" s="92"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="94"/>
+      <c r="F24" s="95"/>
+      <c r="G24" s="91"/>
+      <c r="H24" s="96"/>
+      <c r="I24" s="92"/>
+      <c r="J24" s="97"/>
+      <c r="K24" s="98"/>
+      <c r="L24" s="98"/>
+      <c r="M24" s="98"/>
+      <c r="N24" s="98"/>
+      <c r="O24" s="98"/>
+      <c r="P24" s="99"/>
+      <c r="Q24" s="100"/>
+      <c r="R24" s="101"/>
+      <c r="S24" s="101"/>
+      <c r="T24" s="101"/>
+      <c r="U24" s="101"/>
+      <c r="V24" s="101"/>
+      <c r="W24" s="101"/>
+      <c r="X24" s="101"/>
+      <c r="Y24" s="101"/>
+      <c r="Z24" s="101"/>
+      <c r="AA24" s="101"/>
+      <c r="AB24" s="101"/>
+      <c r="AC24" s="101"/>
+      <c r="AD24" s="101"/>
+      <c r="AE24" s="102"/>
+      <c r="AF24" s="97"/>
+      <c r="AG24" s="98"/>
+      <c r="AH24" s="98"/>
+      <c r="AI24" s="99"/>
     </row>
     <row r="25" spans="1:35" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="15"/>
-      <c r="B25" s="129"/>
-      <c r="C25" s="130"/>
-      <c r="D25" s="131"/>
-      <c r="E25" s="132"/>
-      <c r="F25" s="133"/>
-      <c r="G25" s="129"/>
-      <c r="H25" s="134"/>
-      <c r="I25" s="130"/>
-      <c r="J25" s="135"/>
-      <c r="K25" s="136"/>
-      <c r="L25" s="136"/>
-      <c r="M25" s="136"/>
-      <c r="N25" s="136"/>
-      <c r="O25" s="136"/>
-      <c r="P25" s="137"/>
-      <c r="Q25" s="138"/>
-      <c r="R25" s="139"/>
-      <c r="S25" s="139"/>
-      <c r="T25" s="139"/>
-      <c r="U25" s="139"/>
-      <c r="V25" s="139"/>
-      <c r="W25" s="139"/>
-      <c r="X25" s="139"/>
-      <c r="Y25" s="139"/>
-      <c r="Z25" s="139"/>
-      <c r="AA25" s="139"/>
-      <c r="AB25" s="139"/>
-      <c r="AC25" s="139"/>
-      <c r="AD25" s="139"/>
-      <c r="AE25" s="140"/>
-      <c r="AF25" s="135"/>
-      <c r="AG25" s="136"/>
-      <c r="AH25" s="136"/>
-      <c r="AI25" s="137"/>
+      <c r="B25" s="91"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="93"/>
+      <c r="E25" s="94"/>
+      <c r="F25" s="95"/>
+      <c r="G25" s="91"/>
+      <c r="H25" s="96"/>
+      <c r="I25" s="92"/>
+      <c r="J25" s="97"/>
+      <c r="K25" s="98"/>
+      <c r="L25" s="98"/>
+      <c r="M25" s="98"/>
+      <c r="N25" s="98"/>
+      <c r="O25" s="98"/>
+      <c r="P25" s="99"/>
+      <c r="Q25" s="100"/>
+      <c r="R25" s="101"/>
+      <c r="S25" s="101"/>
+      <c r="T25" s="101"/>
+      <c r="U25" s="101"/>
+      <c r="V25" s="101"/>
+      <c r="W25" s="101"/>
+      <c r="X25" s="101"/>
+      <c r="Y25" s="101"/>
+      <c r="Z25" s="101"/>
+      <c r="AA25" s="101"/>
+      <c r="AB25" s="101"/>
+      <c r="AC25" s="101"/>
+      <c r="AD25" s="101"/>
+      <c r="AE25" s="102"/>
+      <c r="AF25" s="97"/>
+      <c r="AG25" s="98"/>
+      <c r="AH25" s="98"/>
+      <c r="AI25" s="99"/>
     </row>
     <row r="26" spans="1:35" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="15"/>
-      <c r="B26" s="129"/>
-      <c r="C26" s="130"/>
-      <c r="D26" s="131"/>
-      <c r="E26" s="132"/>
-      <c r="F26" s="133"/>
-      <c r="G26" s="129"/>
-      <c r="H26" s="134"/>
-      <c r="I26" s="130"/>
-      <c r="J26" s="135"/>
-      <c r="K26" s="136"/>
-      <c r="L26" s="136"/>
-      <c r="M26" s="136"/>
-      <c r="N26" s="136"/>
-      <c r="O26" s="136"/>
-      <c r="P26" s="137"/>
-      <c r="Q26" s="138"/>
-      <c r="R26" s="139"/>
-      <c r="S26" s="139"/>
-      <c r="T26" s="139"/>
-      <c r="U26" s="139"/>
-      <c r="V26" s="139"/>
-      <c r="W26" s="139"/>
-      <c r="X26" s="139"/>
-      <c r="Y26" s="139"/>
-      <c r="Z26" s="139"/>
-      <c r="AA26" s="139"/>
-      <c r="AB26" s="139"/>
-      <c r="AC26" s="139"/>
-      <c r="AD26" s="139"/>
-      <c r="AE26" s="140"/>
-      <c r="AF26" s="135"/>
-      <c r="AG26" s="136"/>
-      <c r="AH26" s="136"/>
-      <c r="AI26" s="137"/>
+      <c r="B26" s="91"/>
+      <c r="C26" s="92"/>
+      <c r="D26" s="93"/>
+      <c r="E26" s="94"/>
+      <c r="F26" s="95"/>
+      <c r="G26" s="91"/>
+      <c r="H26" s="96"/>
+      <c r="I26" s="92"/>
+      <c r="J26" s="97"/>
+      <c r="K26" s="98"/>
+      <c r="L26" s="98"/>
+      <c r="M26" s="98"/>
+      <c r="N26" s="98"/>
+      <c r="O26" s="98"/>
+      <c r="P26" s="99"/>
+      <c r="Q26" s="100"/>
+      <c r="R26" s="101"/>
+      <c r="S26" s="101"/>
+      <c r="T26" s="101"/>
+      <c r="U26" s="101"/>
+      <c r="V26" s="101"/>
+      <c r="W26" s="101"/>
+      <c r="X26" s="101"/>
+      <c r="Y26" s="101"/>
+      <c r="Z26" s="101"/>
+      <c r="AA26" s="101"/>
+      <c r="AB26" s="101"/>
+      <c r="AC26" s="101"/>
+      <c r="AD26" s="101"/>
+      <c r="AE26" s="102"/>
+      <c r="AF26" s="97"/>
+      <c r="AG26" s="98"/>
+      <c r="AH26" s="98"/>
+      <c r="AI26" s="99"/>
     </row>
     <row r="27" spans="1:35" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="15"/>
-      <c r="B27" s="129"/>
-      <c r="C27" s="130"/>
-      <c r="D27" s="131"/>
-      <c r="E27" s="132"/>
-      <c r="F27" s="133"/>
-      <c r="G27" s="129"/>
-      <c r="H27" s="134"/>
-      <c r="I27" s="130"/>
-      <c r="J27" s="135"/>
-      <c r="K27" s="136"/>
-      <c r="L27" s="136"/>
-      <c r="M27" s="136"/>
-      <c r="N27" s="136"/>
-      <c r="O27" s="136"/>
-      <c r="P27" s="137"/>
-      <c r="Q27" s="138"/>
-      <c r="R27" s="139"/>
-      <c r="S27" s="139"/>
-      <c r="T27" s="139"/>
-      <c r="U27" s="139"/>
-      <c r="V27" s="139"/>
-      <c r="W27" s="139"/>
-      <c r="X27" s="139"/>
-      <c r="Y27" s="139"/>
-      <c r="Z27" s="139"/>
-      <c r="AA27" s="139"/>
-      <c r="AB27" s="139"/>
-      <c r="AC27" s="139"/>
-      <c r="AD27" s="139"/>
-      <c r="AE27" s="140"/>
-      <c r="AF27" s="135"/>
-      <c r="AG27" s="136"/>
-      <c r="AH27" s="136"/>
-      <c r="AI27" s="137"/>
+      <c r="B27" s="91"/>
+      <c r="C27" s="92"/>
+      <c r="D27" s="93"/>
+      <c r="E27" s="94"/>
+      <c r="F27" s="95"/>
+      <c r="G27" s="91"/>
+      <c r="H27" s="96"/>
+      <c r="I27" s="92"/>
+      <c r="J27" s="97"/>
+      <c r="K27" s="98"/>
+      <c r="L27" s="98"/>
+      <c r="M27" s="98"/>
+      <c r="N27" s="98"/>
+      <c r="O27" s="98"/>
+      <c r="P27" s="99"/>
+      <c r="Q27" s="100"/>
+      <c r="R27" s="101"/>
+      <c r="S27" s="101"/>
+      <c r="T27" s="101"/>
+      <c r="U27" s="101"/>
+      <c r="V27" s="101"/>
+      <c r="W27" s="101"/>
+      <c r="X27" s="101"/>
+      <c r="Y27" s="101"/>
+      <c r="Z27" s="101"/>
+      <c r="AA27" s="101"/>
+      <c r="AB27" s="101"/>
+      <c r="AC27" s="101"/>
+      <c r="AD27" s="101"/>
+      <c r="AE27" s="102"/>
+      <c r="AF27" s="97"/>
+      <c r="AG27" s="98"/>
+      <c r="AH27" s="98"/>
+      <c r="AI27" s="99"/>
     </row>
     <row r="28" spans="1:35" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="15"/>
-      <c r="B28" s="129"/>
-      <c r="C28" s="130"/>
-      <c r="D28" s="131"/>
-      <c r="E28" s="132"/>
-      <c r="F28" s="133"/>
-      <c r="G28" s="129"/>
-      <c r="H28" s="134"/>
-      <c r="I28" s="130"/>
-      <c r="J28" s="135"/>
-      <c r="K28" s="136"/>
-      <c r="L28" s="136"/>
-      <c r="M28" s="136"/>
-      <c r="N28" s="136"/>
-      <c r="O28" s="136"/>
-      <c r="P28" s="137"/>
-      <c r="Q28" s="138"/>
-      <c r="R28" s="139"/>
-      <c r="S28" s="139"/>
-      <c r="T28" s="139"/>
-      <c r="U28" s="139"/>
-      <c r="V28" s="139"/>
-      <c r="W28" s="139"/>
-      <c r="X28" s="139"/>
-      <c r="Y28" s="139"/>
-      <c r="Z28" s="139"/>
-      <c r="AA28" s="139"/>
-      <c r="AB28" s="139"/>
-      <c r="AC28" s="139"/>
-      <c r="AD28" s="139"/>
-      <c r="AE28" s="140"/>
-      <c r="AF28" s="135"/>
-      <c r="AG28" s="136"/>
-      <c r="AH28" s="136"/>
-      <c r="AI28" s="137"/>
+      <c r="B28" s="91"/>
+      <c r="C28" s="92"/>
+      <c r="D28" s="93"/>
+      <c r="E28" s="94"/>
+      <c r="F28" s="95"/>
+      <c r="G28" s="91"/>
+      <c r="H28" s="96"/>
+      <c r="I28" s="92"/>
+      <c r="J28" s="97"/>
+      <c r="K28" s="98"/>
+      <c r="L28" s="98"/>
+      <c r="M28" s="98"/>
+      <c r="N28" s="98"/>
+      <c r="O28" s="98"/>
+      <c r="P28" s="99"/>
+      <c r="Q28" s="100"/>
+      <c r="R28" s="101"/>
+      <c r="S28" s="101"/>
+      <c r="T28" s="101"/>
+      <c r="U28" s="101"/>
+      <c r="V28" s="101"/>
+      <c r="W28" s="101"/>
+      <c r="X28" s="101"/>
+      <c r="Y28" s="101"/>
+      <c r="Z28" s="101"/>
+      <c r="AA28" s="101"/>
+      <c r="AB28" s="101"/>
+      <c r="AC28" s="101"/>
+      <c r="AD28" s="101"/>
+      <c r="AE28" s="102"/>
+      <c r="AF28" s="97"/>
+      <c r="AG28" s="98"/>
+      <c r="AH28" s="98"/>
+      <c r="AI28" s="99"/>
     </row>
     <row r="29" spans="1:35" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="15"/>
-      <c r="B29" s="129"/>
-      <c r="C29" s="130"/>
-      <c r="D29" s="131"/>
-      <c r="E29" s="132"/>
-      <c r="F29" s="133"/>
-      <c r="G29" s="129"/>
-      <c r="H29" s="134"/>
-      <c r="I29" s="130"/>
-      <c r="J29" s="135"/>
-      <c r="K29" s="136"/>
-      <c r="L29" s="136"/>
-      <c r="M29" s="136"/>
-      <c r="N29" s="136"/>
-      <c r="O29" s="136"/>
-      <c r="P29" s="137"/>
-      <c r="Q29" s="138"/>
-      <c r="R29" s="139"/>
-      <c r="S29" s="139"/>
-      <c r="T29" s="139"/>
-      <c r="U29" s="139"/>
-      <c r="V29" s="139"/>
-      <c r="W29" s="139"/>
-      <c r="X29" s="139"/>
-      <c r="Y29" s="139"/>
-      <c r="Z29" s="139"/>
-      <c r="AA29" s="139"/>
-      <c r="AB29" s="139"/>
-      <c r="AC29" s="139"/>
-      <c r="AD29" s="139"/>
-      <c r="AE29" s="140"/>
-      <c r="AF29" s="135"/>
-      <c r="AG29" s="136"/>
-      <c r="AH29" s="136"/>
-      <c r="AI29" s="137"/>
+      <c r="B29" s="91"/>
+      <c r="C29" s="92"/>
+      <c r="D29" s="93"/>
+      <c r="E29" s="94"/>
+      <c r="F29" s="95"/>
+      <c r="G29" s="91"/>
+      <c r="H29" s="96"/>
+      <c r="I29" s="92"/>
+      <c r="J29" s="97"/>
+      <c r="K29" s="98"/>
+      <c r="L29" s="98"/>
+      <c r="M29" s="98"/>
+      <c r="N29" s="98"/>
+      <c r="O29" s="98"/>
+      <c r="P29" s="99"/>
+      <c r="Q29" s="100"/>
+      <c r="R29" s="101"/>
+      <c r="S29" s="101"/>
+      <c r="T29" s="101"/>
+      <c r="U29" s="101"/>
+      <c r="V29" s="101"/>
+      <c r="W29" s="101"/>
+      <c r="X29" s="101"/>
+      <c r="Y29" s="101"/>
+      <c r="Z29" s="101"/>
+      <c r="AA29" s="101"/>
+      <c r="AB29" s="101"/>
+      <c r="AC29" s="101"/>
+      <c r="AD29" s="101"/>
+      <c r="AE29" s="102"/>
+      <c r="AF29" s="97"/>
+      <c r="AG29" s="98"/>
+      <c r="AH29" s="98"/>
+      <c r="AI29" s="99"/>
     </row>
     <row r="30" spans="1:35" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="15"/>
-      <c r="B30" s="129"/>
-      <c r="C30" s="130"/>
-      <c r="D30" s="131"/>
-      <c r="E30" s="132"/>
-      <c r="F30" s="133"/>
-      <c r="G30" s="129"/>
-      <c r="H30" s="134"/>
-      <c r="I30" s="130"/>
-      <c r="J30" s="135"/>
-      <c r="K30" s="136"/>
-      <c r="L30" s="136"/>
-      <c r="M30" s="136"/>
-      <c r="N30" s="136"/>
-      <c r="O30" s="136"/>
-      <c r="P30" s="137"/>
-      <c r="Q30" s="138"/>
-      <c r="R30" s="139"/>
-      <c r="S30" s="139"/>
-      <c r="T30" s="139"/>
-      <c r="U30" s="139"/>
-      <c r="V30" s="139"/>
-      <c r="W30" s="139"/>
-      <c r="X30" s="139"/>
-      <c r="Y30" s="139"/>
-      <c r="Z30" s="139"/>
-      <c r="AA30" s="139"/>
-      <c r="AB30" s="139"/>
-      <c r="AC30" s="139"/>
-      <c r="AD30" s="139"/>
-      <c r="AE30" s="140"/>
-      <c r="AF30" s="135"/>
-      <c r="AG30" s="136"/>
-      <c r="AH30" s="136"/>
-      <c r="AI30" s="137"/>
+      <c r="B30" s="91"/>
+      <c r="C30" s="92"/>
+      <c r="D30" s="93"/>
+      <c r="E30" s="94"/>
+      <c r="F30" s="95"/>
+      <c r="G30" s="91"/>
+      <c r="H30" s="96"/>
+      <c r="I30" s="92"/>
+      <c r="J30" s="97"/>
+      <c r="K30" s="98"/>
+      <c r="L30" s="98"/>
+      <c r="M30" s="98"/>
+      <c r="N30" s="98"/>
+      <c r="O30" s="98"/>
+      <c r="P30" s="99"/>
+      <c r="Q30" s="100"/>
+      <c r="R30" s="101"/>
+      <c r="S30" s="101"/>
+      <c r="T30" s="101"/>
+      <c r="U30" s="101"/>
+      <c r="V30" s="101"/>
+      <c r="W30" s="101"/>
+      <c r="X30" s="101"/>
+      <c r="Y30" s="101"/>
+      <c r="Z30" s="101"/>
+      <c r="AA30" s="101"/>
+      <c r="AB30" s="101"/>
+      <c r="AC30" s="101"/>
+      <c r="AD30" s="101"/>
+      <c r="AE30" s="102"/>
+      <c r="AF30" s="97"/>
+      <c r="AG30" s="98"/>
+      <c r="AH30" s="98"/>
+      <c r="AI30" s="99"/>
     </row>
     <row r="31" spans="1:35" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="15"/>
-      <c r="B31" s="129"/>
-      <c r="C31" s="130"/>
-      <c r="D31" s="131"/>
-      <c r="E31" s="132"/>
-      <c r="F31" s="133"/>
-      <c r="G31" s="129"/>
-      <c r="H31" s="134"/>
-      <c r="I31" s="130"/>
-      <c r="J31" s="135"/>
-      <c r="K31" s="136"/>
-      <c r="L31" s="136"/>
-      <c r="M31" s="136"/>
-      <c r="N31" s="136"/>
-      <c r="O31" s="136"/>
-      <c r="P31" s="137"/>
-      <c r="Q31" s="138"/>
-      <c r="R31" s="139"/>
-      <c r="S31" s="139"/>
-      <c r="T31" s="139"/>
-      <c r="U31" s="139"/>
-      <c r="V31" s="139"/>
-      <c r="W31" s="139"/>
-      <c r="X31" s="139"/>
-      <c r="Y31" s="139"/>
-      <c r="Z31" s="139"/>
-      <c r="AA31" s="139"/>
-      <c r="AB31" s="139"/>
-      <c r="AC31" s="139"/>
-      <c r="AD31" s="139"/>
-      <c r="AE31" s="140"/>
-      <c r="AF31" s="135"/>
-      <c r="AG31" s="136"/>
-      <c r="AH31" s="136"/>
-      <c r="AI31" s="137"/>
+      <c r="B31" s="91"/>
+      <c r="C31" s="92"/>
+      <c r="D31" s="93"/>
+      <c r="E31" s="94"/>
+      <c r="F31" s="95"/>
+      <c r="G31" s="91"/>
+      <c r="H31" s="96"/>
+      <c r="I31" s="92"/>
+      <c r="J31" s="97"/>
+      <c r="K31" s="98"/>
+      <c r="L31" s="98"/>
+      <c r="M31" s="98"/>
+      <c r="N31" s="98"/>
+      <c r="O31" s="98"/>
+      <c r="P31" s="99"/>
+      <c r="Q31" s="100"/>
+      <c r="R31" s="101"/>
+      <c r="S31" s="101"/>
+      <c r="T31" s="101"/>
+      <c r="U31" s="101"/>
+      <c r="V31" s="101"/>
+      <c r="W31" s="101"/>
+      <c r="X31" s="101"/>
+      <c r="Y31" s="101"/>
+      <c r="Z31" s="101"/>
+      <c r="AA31" s="101"/>
+      <c r="AB31" s="101"/>
+      <c r="AC31" s="101"/>
+      <c r="AD31" s="101"/>
+      <c r="AE31" s="102"/>
+      <c r="AF31" s="97"/>
+      <c r="AG31" s="98"/>
+      <c r="AH31" s="98"/>
+      <c r="AI31" s="99"/>
     </row>
     <row r="32" spans="1:35" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="15"/>
-      <c r="B32" s="129"/>
-      <c r="C32" s="130"/>
-      <c r="D32" s="131"/>
-      <c r="E32" s="132"/>
-      <c r="F32" s="133"/>
-      <c r="G32" s="129"/>
-      <c r="H32" s="134"/>
-      <c r="I32" s="130"/>
-      <c r="J32" s="135"/>
-      <c r="K32" s="155"/>
-      <c r="L32" s="136"/>
-      <c r="M32" s="136"/>
-      <c r="N32" s="136"/>
-      <c r="O32" s="136"/>
-      <c r="P32" s="137"/>
-      <c r="Q32" s="138"/>
-      <c r="R32" s="139"/>
-      <c r="S32" s="139"/>
-      <c r="T32" s="139"/>
-      <c r="U32" s="139"/>
-      <c r="V32" s="139"/>
-      <c r="W32" s="139"/>
-      <c r="X32" s="139"/>
-      <c r="Y32" s="139"/>
-      <c r="Z32" s="139"/>
-      <c r="AA32" s="139"/>
-      <c r="AB32" s="139"/>
-      <c r="AC32" s="139"/>
-      <c r="AD32" s="139"/>
-      <c r="AE32" s="140"/>
-      <c r="AF32" s="135"/>
-      <c r="AG32" s="136"/>
-      <c r="AH32" s="136"/>
-      <c r="AI32" s="137"/>
+      <c r="B32" s="91"/>
+      <c r="C32" s="92"/>
+      <c r="D32" s="93"/>
+      <c r="E32" s="94"/>
+      <c r="F32" s="95"/>
+      <c r="G32" s="91"/>
+      <c r="H32" s="96"/>
+      <c r="I32" s="92"/>
+      <c r="J32" s="97"/>
+      <c r="K32" s="103"/>
+      <c r="L32" s="98"/>
+      <c r="M32" s="98"/>
+      <c r="N32" s="98"/>
+      <c r="O32" s="98"/>
+      <c r="P32" s="99"/>
+      <c r="Q32" s="100"/>
+      <c r="R32" s="101"/>
+      <c r="S32" s="101"/>
+      <c r="T32" s="101"/>
+      <c r="U32" s="101"/>
+      <c r="V32" s="101"/>
+      <c r="W32" s="101"/>
+      <c r="X32" s="101"/>
+      <c r="Y32" s="101"/>
+      <c r="Z32" s="101"/>
+      <c r="AA32" s="101"/>
+      <c r="AB32" s="101"/>
+      <c r="AC32" s="101"/>
+      <c r="AD32" s="101"/>
+      <c r="AE32" s="102"/>
+      <c r="AF32" s="97"/>
+      <c r="AG32" s="98"/>
+      <c r="AH32" s="98"/>
+      <c r="AI32" s="99"/>
     </row>
     <row r="33" spans="1:35" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="15"/>
-      <c r="B33" s="129"/>
-      <c r="C33" s="130"/>
-      <c r="D33" s="131"/>
-      <c r="E33" s="132"/>
-      <c r="F33" s="133"/>
-      <c r="G33" s="129"/>
-      <c r="H33" s="134"/>
-      <c r="I33" s="130"/>
-      <c r="J33" s="135"/>
-      <c r="K33" s="136"/>
-      <c r="L33" s="136"/>
-      <c r="M33" s="136"/>
-      <c r="N33" s="136"/>
-      <c r="O33" s="136"/>
-      <c r="P33" s="137"/>
-      <c r="Q33" s="138"/>
-      <c r="R33" s="139"/>
-      <c r="S33" s="139"/>
-      <c r="T33" s="139"/>
-      <c r="U33" s="139"/>
-      <c r="V33" s="139"/>
-      <c r="W33" s="139"/>
-      <c r="X33" s="139"/>
-      <c r="Y33" s="139"/>
-      <c r="Z33" s="139"/>
-      <c r="AA33" s="139"/>
-      <c r="AB33" s="139"/>
-      <c r="AC33" s="139"/>
-      <c r="AD33" s="139"/>
-      <c r="AE33" s="140"/>
-      <c r="AF33" s="135"/>
-      <c r="AG33" s="136"/>
-      <c r="AH33" s="136"/>
-      <c r="AI33" s="137"/>
+      <c r="B33" s="91"/>
+      <c r="C33" s="92"/>
+      <c r="D33" s="93"/>
+      <c r="E33" s="94"/>
+      <c r="F33" s="95"/>
+      <c r="G33" s="91"/>
+      <c r="H33" s="96"/>
+      <c r="I33" s="92"/>
+      <c r="J33" s="97"/>
+      <c r="K33" s="98"/>
+      <c r="L33" s="98"/>
+      <c r="M33" s="98"/>
+      <c r="N33" s="98"/>
+      <c r="O33" s="98"/>
+      <c r="P33" s="99"/>
+      <c r="Q33" s="100"/>
+      <c r="R33" s="101"/>
+      <c r="S33" s="101"/>
+      <c r="T33" s="101"/>
+      <c r="U33" s="101"/>
+      <c r="V33" s="101"/>
+      <c r="W33" s="101"/>
+      <c r="X33" s="101"/>
+      <c r="Y33" s="101"/>
+      <c r="Z33" s="101"/>
+      <c r="AA33" s="101"/>
+      <c r="AB33" s="101"/>
+      <c r="AC33" s="101"/>
+      <c r="AD33" s="101"/>
+      <c r="AE33" s="102"/>
+      <c r="AF33" s="97"/>
+      <c r="AG33" s="98"/>
+      <c r="AH33" s="98"/>
+      <c r="AI33" s="99"/>
     </row>
     <row r="34" spans="1:35" ht="14.25" x14ac:dyDescent="0.15">
       <c r="K34" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -4120,6 +3964,162 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
@@ -4275,163 +4275,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="156" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="167"/>
-      <c r="C1" s="167"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="162" t="str">
+      <c r="B1" s="157"/>
+      <c r="C1" s="157"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="159" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163"/>
-      <c r="I1" s="163"/>
-      <c r="J1" s="163"/>
-      <c r="K1" s="163"/>
-      <c r="L1" s="163"/>
-      <c r="M1" s="163"/>
-      <c r="N1" s="164"/>
-      <c r="O1" s="168" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="169"/>
-      <c r="Q1" s="169"/>
-      <c r="R1" s="170"/>
-      <c r="S1" s="177" t="str">
+      <c r="F1" s="160"/>
+      <c r="G1" s="160"/>
+      <c r="H1" s="160"/>
+      <c r="I1" s="160"/>
+      <c r="J1" s="160"/>
+      <c r="K1" s="160"/>
+      <c r="L1" s="160"/>
+      <c r="M1" s="160"/>
+      <c r="N1" s="161"/>
+      <c r="O1" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="163"/>
+      <c r="Q1" s="163"/>
+      <c r="R1" s="164"/>
+      <c r="S1" s="171" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>コード設計書</v>
       </c>
-      <c r="T1" s="178"/>
-      <c r="U1" s="178"/>
-      <c r="V1" s="178"/>
-      <c r="W1" s="178"/>
-      <c r="X1" s="178"/>
-      <c r="Y1" s="178"/>
-      <c r="Z1" s="179"/>
-      <c r="AA1" s="165" t="s">
+      <c r="T1" s="172"/>
+      <c r="U1" s="172"/>
+      <c r="V1" s="172"/>
+      <c r="W1" s="172"/>
+      <c r="X1" s="172"/>
+      <c r="Y1" s="172"/>
+      <c r="Z1" s="173"/>
+      <c r="AA1" s="156" t="s">
         <v>2</v>
       </c>
-      <c r="AB1" s="166"/>
-      <c r="AC1" s="159" t="str">
+      <c r="AB1" s="158"/>
+      <c r="AC1" s="183" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="160"/>
-      <c r="AE1" s="160"/>
-      <c r="AF1" s="161"/>
-      <c r="AG1" s="156">
+      <c r="AD1" s="184"/>
+      <c r="AE1" s="184"/>
+      <c r="AF1" s="185"/>
+      <c r="AG1" s="180">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43593</v>
       </c>
-      <c r="AH1" s="157"/>
-      <c r="AI1" s="158"/>
+      <c r="AH1" s="181"/>
+      <c r="AI1" s="182"/>
       <c r="AJ1" s="31"/>
       <c r="AK1" s="31"/>
       <c r="AL1" s="32"/>
     </row>
     <row r="2" spans="1:38" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="165" t="s">
+      <c r="A2" s="156" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="162" t="str">
+      <c r="B2" s="157"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="158"/>
+      <c r="E2" s="159" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="163"/>
-      <c r="G2" s="163"/>
-      <c r="H2" s="163"/>
-      <c r="I2" s="163"/>
-      <c r="J2" s="163"/>
-      <c r="K2" s="163"/>
-      <c r="L2" s="163"/>
-      <c r="M2" s="163"/>
-      <c r="N2" s="164"/>
-      <c r="O2" s="171"/>
-      <c r="P2" s="172"/>
-      <c r="Q2" s="172"/>
-      <c r="R2" s="173"/>
-      <c r="S2" s="180"/>
-      <c r="T2" s="181"/>
-      <c r="U2" s="181"/>
-      <c r="V2" s="181"/>
-      <c r="W2" s="181"/>
-      <c r="X2" s="181"/>
-      <c r="Y2" s="181"/>
-      <c r="Z2" s="182"/>
-      <c r="AA2" s="165" t="s">
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="160"/>
+      <c r="J2" s="160"/>
+      <c r="K2" s="160"/>
+      <c r="L2" s="160"/>
+      <c r="M2" s="160"/>
+      <c r="N2" s="161"/>
+      <c r="O2" s="165"/>
+      <c r="P2" s="166"/>
+      <c r="Q2" s="166"/>
+      <c r="R2" s="167"/>
+      <c r="S2" s="174"/>
+      <c r="T2" s="175"/>
+      <c r="U2" s="175"/>
+      <c r="V2" s="175"/>
+      <c r="W2" s="175"/>
+      <c r="X2" s="175"/>
+      <c r="Y2" s="175"/>
+      <c r="Z2" s="176"/>
+      <c r="AA2" s="156" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="166"/>
-      <c r="AC2" s="159" t="str">
+      <c r="AB2" s="158"/>
+      <c r="AC2" s="183" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="160"/>
-      <c r="AE2" s="160"/>
-      <c r="AF2" s="161"/>
-      <c r="AG2" s="156" t="str">
+      <c r="AD2" s="184"/>
+      <c r="AE2" s="184"/>
+      <c r="AF2" s="185"/>
+      <c r="AG2" s="180" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="157"/>
-      <c r="AI2" s="158"/>
+      <c r="AH2" s="181"/>
+      <c r="AI2" s="182"/>
       <c r="AJ2" s="31"/>
       <c r="AK2" s="31"/>
       <c r="AL2" s="31"/>
     </row>
     <row r="3" spans="1:38" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="165" t="s">
+      <c r="A3" s="156" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="167"/>
-      <c r="C3" s="167"/>
-      <c r="D3" s="166"/>
-      <c r="E3" s="162" t="str">
+      <c r="B3" s="157"/>
+      <c r="C3" s="157"/>
+      <c r="D3" s="158"/>
+      <c r="E3" s="159" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="163"/>
-      <c r="G3" s="163"/>
-      <c r="H3" s="163"/>
-      <c r="I3" s="163"/>
-      <c r="J3" s="163"/>
-      <c r="K3" s="163"/>
-      <c r="L3" s="163"/>
-      <c r="M3" s="163"/>
-      <c r="N3" s="164"/>
-      <c r="O3" s="174"/>
-      <c r="P3" s="175"/>
-      <c r="Q3" s="175"/>
-      <c r="R3" s="176"/>
-      <c r="S3" s="183"/>
-      <c r="T3" s="184"/>
-      <c r="U3" s="184"/>
-      <c r="V3" s="184"/>
-      <c r="W3" s="184"/>
-      <c r="X3" s="184"/>
-      <c r="Y3" s="184"/>
-      <c r="Z3" s="185"/>
-      <c r="AA3" s="165"/>
-      <c r="AB3" s="166"/>
-      <c r="AC3" s="159" t="str">
+      <c r="F3" s="160"/>
+      <c r="G3" s="160"/>
+      <c r="H3" s="160"/>
+      <c r="I3" s="160"/>
+      <c r="J3" s="160"/>
+      <c r="K3" s="160"/>
+      <c r="L3" s="160"/>
+      <c r="M3" s="160"/>
+      <c r="N3" s="161"/>
+      <c r="O3" s="168"/>
+      <c r="P3" s="169"/>
+      <c r="Q3" s="169"/>
+      <c r="R3" s="170"/>
+      <c r="S3" s="177"/>
+      <c r="T3" s="178"/>
+      <c r="U3" s="178"/>
+      <c r="V3" s="178"/>
+      <c r="W3" s="178"/>
+      <c r="X3" s="178"/>
+      <c r="Y3" s="178"/>
+      <c r="Z3" s="179"/>
+      <c r="AA3" s="156"/>
+      <c r="AB3" s="158"/>
+      <c r="AC3" s="183" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="160"/>
-      <c r="AE3" s="160"/>
-      <c r="AF3" s="161"/>
-      <c r="AG3" s="156" t="str">
+      <c r="AD3" s="184"/>
+      <c r="AE3" s="184"/>
+      <c r="AF3" s="185"/>
+      <c r="AG3" s="180" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="157"/>
-      <c r="AI3" s="158"/>
+      <c r="AH3" s="181"/>
+      <c r="AI3" s="182"/>
       <c r="AJ3" s="31"/>
       <c r="AK3" s="31"/>
       <c r="AL3" s="31"/>
@@ -5894,6 +5894,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -5903,14 +5911,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
@@ -5926,7 +5926,7 @@
   </sheetPr>
   <dimension ref="A1:BT46"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -5936,59 +5936,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:72" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="156" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="167"/>
-      <c r="C1" s="167"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="162" t="str">
+      <c r="B1" s="157"/>
+      <c r="C1" s="157"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="159" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163"/>
-      <c r="I1" s="163"/>
-      <c r="J1" s="163"/>
-      <c r="K1" s="163"/>
-      <c r="L1" s="163"/>
-      <c r="M1" s="163"/>
-      <c r="N1" s="164"/>
-      <c r="O1" s="204" t="s">
+      <c r="F1" s="160"/>
+      <c r="G1" s="160"/>
+      <c r="H1" s="160"/>
+      <c r="I1" s="160"/>
+      <c r="J1" s="160"/>
+      <c r="K1" s="160"/>
+      <c r="L1" s="160"/>
+      <c r="M1" s="160"/>
+      <c r="N1" s="161"/>
+      <c r="O1" s="210" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="205"/>
-      <c r="Q1" s="205"/>
-      <c r="R1" s="206"/>
-      <c r="S1" s="213" t="str">
+      <c r="P1" s="211"/>
+      <c r="Q1" s="211"/>
+      <c r="R1" s="212"/>
+      <c r="S1" s="219" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>コード設計書</v>
       </c>
-      <c r="T1" s="214"/>
-      <c r="U1" s="214"/>
-      <c r="V1" s="214"/>
-      <c r="W1" s="214"/>
-      <c r="X1" s="214"/>
-      <c r="Y1" s="214"/>
-      <c r="Z1" s="215"/>
-      <c r="AA1" s="165" t="s">
+      <c r="T1" s="220"/>
+      <c r="U1" s="220"/>
+      <c r="V1" s="220"/>
+      <c r="W1" s="220"/>
+      <c r="X1" s="220"/>
+      <c r="Y1" s="220"/>
+      <c r="Z1" s="221"/>
+      <c r="AA1" s="156" t="s">
         <v>8</v>
       </c>
-      <c r="AB1" s="166"/>
-      <c r="AC1" s="159" t="str">
+      <c r="AB1" s="158"/>
+      <c r="AC1" s="183" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="160"/>
-      <c r="AE1" s="160"/>
-      <c r="AF1" s="161"/>
-      <c r="AG1" s="156">
+      <c r="AD1" s="184"/>
+      <c r="AE1" s="184"/>
+      <c r="AF1" s="185"/>
+      <c r="AG1" s="180">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43593</v>
       </c>
-      <c r="AH1" s="157"/>
-      <c r="AI1" s="158"/>
+      <c r="AH1" s="181"/>
+      <c r="AI1" s="182"/>
       <c r="AJ1" s="31"/>
       <c r="AK1" s="31"/>
       <c r="AL1" s="32"/>
@@ -6007,54 +6007,54 @@
       <c r="AY1" s="33"/>
     </row>
     <row r="2" spans="1:72" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="165" t="s">
+      <c r="A2" s="156" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="162" t="str">
+      <c r="B2" s="157"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="158"/>
+      <c r="E2" s="159" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="163"/>
-      <c r="G2" s="163"/>
-      <c r="H2" s="163"/>
-      <c r="I2" s="163"/>
-      <c r="J2" s="163"/>
-      <c r="K2" s="163"/>
-      <c r="L2" s="163"/>
-      <c r="M2" s="163"/>
-      <c r="N2" s="164"/>
-      <c r="O2" s="207"/>
-      <c r="P2" s="208"/>
-      <c r="Q2" s="208"/>
-      <c r="R2" s="209"/>
-      <c r="S2" s="216"/>
-      <c r="T2" s="217"/>
-      <c r="U2" s="217"/>
-      <c r="V2" s="217"/>
-      <c r="W2" s="217"/>
-      <c r="X2" s="217"/>
-      <c r="Y2" s="217"/>
-      <c r="Z2" s="218"/>
-      <c r="AA2" s="165" t="s">
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="160"/>
+      <c r="J2" s="160"/>
+      <c r="K2" s="160"/>
+      <c r="L2" s="160"/>
+      <c r="M2" s="160"/>
+      <c r="N2" s="161"/>
+      <c r="O2" s="213"/>
+      <c r="P2" s="214"/>
+      <c r="Q2" s="214"/>
+      <c r="R2" s="215"/>
+      <c r="S2" s="222"/>
+      <c r="T2" s="223"/>
+      <c r="U2" s="223"/>
+      <c r="V2" s="223"/>
+      <c r="W2" s="223"/>
+      <c r="X2" s="223"/>
+      <c r="Y2" s="223"/>
+      <c r="Z2" s="224"/>
+      <c r="AA2" s="156" t="s">
         <v>10</v>
       </c>
-      <c r="AB2" s="166"/>
-      <c r="AC2" s="159" t="str">
+      <c r="AB2" s="158"/>
+      <c r="AC2" s="183" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="160"/>
-      <c r="AE2" s="160"/>
-      <c r="AF2" s="161"/>
-      <c r="AG2" s="156" t="str">
+      <c r="AD2" s="184"/>
+      <c r="AE2" s="184"/>
+      <c r="AF2" s="185"/>
+      <c r="AG2" s="180" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="157"/>
-      <c r="AI2" s="158"/>
+      <c r="AH2" s="181"/>
+      <c r="AI2" s="182"/>
       <c r="AJ2" s="31"/>
       <c r="AK2" s="31"/>
       <c r="AL2" s="31"/>
@@ -6073,52 +6073,52 @@
       <c r="AY2" s="33"/>
     </row>
     <row r="3" spans="1:72" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="165" t="s">
+      <c r="A3" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="167"/>
-      <c r="C3" s="167"/>
-      <c r="D3" s="166"/>
-      <c r="E3" s="162" t="str">
+      <c r="B3" s="157"/>
+      <c r="C3" s="157"/>
+      <c r="D3" s="158"/>
+      <c r="E3" s="159" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="163"/>
-      <c r="G3" s="163"/>
-      <c r="H3" s="163"/>
-      <c r="I3" s="163"/>
-      <c r="J3" s="163"/>
-      <c r="K3" s="163"/>
-      <c r="L3" s="163"/>
-      <c r="M3" s="163"/>
-      <c r="N3" s="164"/>
-      <c r="O3" s="210"/>
-      <c r="P3" s="211"/>
-      <c r="Q3" s="211"/>
-      <c r="R3" s="212"/>
-      <c r="S3" s="219"/>
-      <c r="T3" s="220"/>
-      <c r="U3" s="220"/>
-      <c r="V3" s="220"/>
-      <c r="W3" s="220"/>
-      <c r="X3" s="220"/>
-      <c r="Y3" s="220"/>
-      <c r="Z3" s="221"/>
-      <c r="AA3" s="165"/>
-      <c r="AB3" s="166"/>
-      <c r="AC3" s="159" t="str">
+      <c r="F3" s="160"/>
+      <c r="G3" s="160"/>
+      <c r="H3" s="160"/>
+      <c r="I3" s="160"/>
+      <c r="J3" s="160"/>
+      <c r="K3" s="160"/>
+      <c r="L3" s="160"/>
+      <c r="M3" s="160"/>
+      <c r="N3" s="161"/>
+      <c r="O3" s="216"/>
+      <c r="P3" s="217"/>
+      <c r="Q3" s="217"/>
+      <c r="R3" s="218"/>
+      <c r="S3" s="225"/>
+      <c r="T3" s="226"/>
+      <c r="U3" s="226"/>
+      <c r="V3" s="226"/>
+      <c r="W3" s="226"/>
+      <c r="X3" s="226"/>
+      <c r="Y3" s="226"/>
+      <c r="Z3" s="227"/>
+      <c r="AA3" s="156"/>
+      <c r="AB3" s="158"/>
+      <c r="AC3" s="183" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="160"/>
-      <c r="AE3" s="160"/>
-      <c r="AF3" s="161"/>
-      <c r="AG3" s="156" t="str">
+      <c r="AD3" s="184"/>
+      <c r="AE3" s="184"/>
+      <c r="AF3" s="185"/>
+      <c r="AG3" s="180" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="157"/>
-      <c r="AI3" s="158"/>
+      <c r="AH3" s="181"/>
+      <c r="AI3" s="182"/>
       <c r="AJ3" s="31"/>
       <c r="AK3" s="31"/>
       <c r="AL3" s="31"/>
@@ -6163,89 +6163,89 @@
       <c r="C11" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="225" t="s">
+      <c r="D11" s="207" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="226"/>
-      <c r="F11" s="225" t="s">
+      <c r="E11" s="208"/>
+      <c r="F11" s="207" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="227"/>
-      <c r="H11" s="227"/>
-      <c r="I11" s="226"/>
-      <c r="J11" s="225" t="s">
+      <c r="G11" s="209"/>
+      <c r="H11" s="209"/>
+      <c r="I11" s="208"/>
+      <c r="J11" s="207" t="s">
         <v>41</v>
       </c>
-      <c r="K11" s="227"/>
-      <c r="L11" s="227"/>
-      <c r="M11" s="227"/>
-      <c r="N11" s="227"/>
-      <c r="O11" s="226"/>
+      <c r="K11" s="209"/>
+      <c r="L11" s="209"/>
+      <c r="M11" s="209"/>
+      <c r="N11" s="209"/>
+      <c r="O11" s="208"/>
       <c r="P11" s="87" t="s">
         <v>42</v>
       </c>
       <c r="Q11" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="R11" s="222" t="s">
+      <c r="R11" s="189" t="s">
         <v>44</v>
       </c>
-      <c r="S11" s="223"/>
-      <c r="T11" s="223"/>
-      <c r="U11" s="222" t="s">
+      <c r="S11" s="206"/>
+      <c r="T11" s="206"/>
+      <c r="U11" s="189" t="s">
         <v>45</v>
       </c>
-      <c r="V11" s="224"/>
-      <c r="W11" s="222" t="s">
+      <c r="V11" s="190"/>
+      <c r="W11" s="189" t="s">
         <v>46</v>
       </c>
-      <c r="X11" s="223"/>
-      <c r="Y11" s="224"/>
-      <c r="Z11" s="222" t="s">
+      <c r="X11" s="206"/>
+      <c r="Y11" s="190"/>
+      <c r="Z11" s="189" t="s">
         <v>47</v>
       </c>
-      <c r="AA11" s="223"/>
-      <c r="AB11" s="224"/>
-      <c r="AC11" s="222" t="s">
+      <c r="AA11" s="206"/>
+      <c r="AB11" s="190"/>
+      <c r="AC11" s="189" t="s">
         <v>48</v>
       </c>
-      <c r="AD11" s="223"/>
-      <c r="AE11" s="224"/>
-      <c r="AF11" s="222" t="s">
+      <c r="AD11" s="206"/>
+      <c r="AE11" s="190"/>
+      <c r="AF11" s="189" t="s">
         <v>49</v>
       </c>
-      <c r="AG11" s="223"/>
-      <c r="AH11" s="224"/>
-      <c r="AI11" s="222" t="s">
+      <c r="AG11" s="206"/>
+      <c r="AH11" s="190"/>
+      <c r="AI11" s="189" t="s">
         <v>50</v>
       </c>
-      <c r="AJ11" s="223"/>
-      <c r="AK11" s="224"/>
-      <c r="AL11" s="222" t="s">
+      <c r="AJ11" s="206"/>
+      <c r="AK11" s="190"/>
+      <c r="AL11" s="189" t="s">
         <v>51</v>
       </c>
-      <c r="AM11" s="223"/>
-      <c r="AN11" s="224"/>
-      <c r="AO11" s="222" t="s">
+      <c r="AM11" s="206"/>
+      <c r="AN11" s="190"/>
+      <c r="AO11" s="189" t="s">
         <v>52</v>
       </c>
-      <c r="AP11" s="223"/>
-      <c r="AQ11" s="224"/>
-      <c r="AR11" s="222" t="s">
+      <c r="AP11" s="206"/>
+      <c r="AQ11" s="190"/>
+      <c r="AR11" s="189" t="s">
         <v>53</v>
       </c>
-      <c r="AS11" s="223"/>
-      <c r="AT11" s="224"/>
-      <c r="AU11" s="222" t="s">
+      <c r="AS11" s="206"/>
+      <c r="AT11" s="190"/>
+      <c r="AU11" s="189" t="s">
         <v>54</v>
       </c>
-      <c r="AV11" s="223"/>
-      <c r="AW11" s="224"/>
-      <c r="AX11" s="222" t="s">
+      <c r="AV11" s="206"/>
+      <c r="AW11" s="190"/>
+      <c r="AX11" s="189" t="s">
         <v>55</v>
       </c>
-      <c r="AY11" s="223"/>
-      <c r="AZ11" s="224"/>
+      <c r="AY11" s="206"/>
+      <c r="AZ11" s="190"/>
       <c r="BA11" s="89" t="s">
         <v>56</v>
       </c>
@@ -6311,24 +6311,24 @@
       <c r="C12" s="82">
         <v>1</v>
       </c>
-      <c r="D12" s="189" t="s">
+      <c r="D12" s="191" t="s">
         <v>76</v>
       </c>
-      <c r="E12" s="190"/>
-      <c r="F12" s="195" t="s">
+      <c r="E12" s="192"/>
+      <c r="F12" s="197" t="s">
         <v>77</v>
       </c>
-      <c r="G12" s="196"/>
-      <c r="H12" s="196"/>
-      <c r="I12" s="197"/>
-      <c r="J12" s="195" t="s">
+      <c r="G12" s="198"/>
+      <c r="H12" s="198"/>
+      <c r="I12" s="199"/>
+      <c r="J12" s="197" t="s">
         <v>78</v>
       </c>
-      <c r="K12" s="196"/>
-      <c r="L12" s="196"/>
-      <c r="M12" s="196"/>
-      <c r="N12" s="196"/>
-      <c r="O12" s="197"/>
+      <c r="K12" s="198"/>
+      <c r="L12" s="198"/>
+      <c r="M12" s="198"/>
+      <c r="N12" s="198"/>
+      <c r="O12" s="199"/>
       <c r="P12" s="83" t="s">
         <v>79</v>
       </c>
@@ -6437,18 +6437,18 @@
       <c r="C13" s="82">
         <v>2</v>
       </c>
-      <c r="D13" s="191"/>
-      <c r="E13" s="192"/>
-      <c r="F13" s="198"/>
-      <c r="G13" s="228"/>
-      <c r="H13" s="228"/>
-      <c r="I13" s="200"/>
-      <c r="J13" s="198"/>
-      <c r="K13" s="228"/>
-      <c r="L13" s="228"/>
-      <c r="M13" s="228"/>
-      <c r="N13" s="228"/>
-      <c r="O13" s="200"/>
+      <c r="D13" s="193"/>
+      <c r="E13" s="194"/>
+      <c r="F13" s="200"/>
+      <c r="G13" s="201"/>
+      <c r="H13" s="201"/>
+      <c r="I13" s="202"/>
+      <c r="J13" s="200"/>
+      <c r="K13" s="201"/>
+      <c r="L13" s="201"/>
+      <c r="M13" s="201"/>
+      <c r="N13" s="201"/>
+      <c r="O13" s="202"/>
       <c r="P13" s="83" t="s">
         <v>81</v>
       </c>
@@ -6557,18 +6557,18 @@
       <c r="C14" s="82">
         <v>3</v>
       </c>
-      <c r="D14" s="193"/>
-      <c r="E14" s="194"/>
-      <c r="F14" s="201"/>
-      <c r="G14" s="202"/>
-      <c r="H14" s="202"/>
-      <c r="I14" s="203"/>
-      <c r="J14" s="201"/>
-      <c r="K14" s="202"/>
-      <c r="L14" s="202"/>
-      <c r="M14" s="202"/>
-      <c r="N14" s="202"/>
-      <c r="O14" s="203"/>
+      <c r="D14" s="195"/>
+      <c r="E14" s="196"/>
+      <c r="F14" s="203"/>
+      <c r="G14" s="204"/>
+      <c r="H14" s="204"/>
+      <c r="I14" s="205"/>
+      <c r="J14" s="203"/>
+      <c r="K14" s="204"/>
+      <c r="L14" s="204"/>
+      <c r="M14" s="204"/>
+      <c r="N14" s="204"/>
+      <c r="O14" s="205"/>
       <c r="P14" s="83" t="s">
         <v>83</v>
       </c>
@@ -6677,24 +6677,24 @@
       <c r="C15" s="82">
         <v>4</v>
       </c>
-      <c r="D15" s="189" t="s">
+      <c r="D15" s="191" t="s">
         <v>85</v>
       </c>
-      <c r="E15" s="190"/>
-      <c r="F15" s="195" t="s">
+      <c r="E15" s="192"/>
+      <c r="F15" s="197" t="s">
         <v>86</v>
       </c>
-      <c r="G15" s="196"/>
-      <c r="H15" s="196"/>
-      <c r="I15" s="197"/>
-      <c r="J15" s="195" t="s">
+      <c r="G15" s="198"/>
+      <c r="H15" s="198"/>
+      <c r="I15" s="199"/>
+      <c r="J15" s="197" t="s">
         <v>87</v>
       </c>
-      <c r="K15" s="196"/>
-      <c r="L15" s="196"/>
-      <c r="M15" s="196"/>
-      <c r="N15" s="196"/>
-      <c r="O15" s="197"/>
+      <c r="K15" s="198"/>
+      <c r="L15" s="198"/>
+      <c r="M15" s="198"/>
+      <c r="N15" s="198"/>
+      <c r="O15" s="199"/>
       <c r="P15" s="83" t="s">
         <v>79</v>
       </c>
@@ -6803,18 +6803,18 @@
       <c r="C16" s="82">
         <v>5</v>
       </c>
-      <c r="D16" s="191"/>
-      <c r="E16" s="192"/>
-      <c r="F16" s="198"/>
-      <c r="G16" s="199"/>
-      <c r="H16" s="199"/>
-      <c r="I16" s="200"/>
-      <c r="J16" s="198"/>
-      <c r="K16" s="199"/>
-      <c r="L16" s="199"/>
-      <c r="M16" s="199"/>
-      <c r="N16" s="199"/>
-      <c r="O16" s="200"/>
+      <c r="D16" s="193"/>
+      <c r="E16" s="194"/>
+      <c r="F16" s="200"/>
+      <c r="G16" s="228"/>
+      <c r="H16" s="228"/>
+      <c r="I16" s="202"/>
+      <c r="J16" s="200"/>
+      <c r="K16" s="228"/>
+      <c r="L16" s="228"/>
+      <c r="M16" s="228"/>
+      <c r="N16" s="228"/>
+      <c r="O16" s="202"/>
       <c r="P16" s="83" t="s">
         <v>81</v>
       </c>
@@ -6923,18 +6923,18 @@
       <c r="C17" s="82">
         <v>6</v>
       </c>
-      <c r="D17" s="191"/>
-      <c r="E17" s="192"/>
-      <c r="F17" s="198"/>
-      <c r="G17" s="199"/>
-      <c r="H17" s="199"/>
-      <c r="I17" s="200"/>
-      <c r="J17" s="198"/>
-      <c r="K17" s="199"/>
-      <c r="L17" s="199"/>
-      <c r="M17" s="199"/>
-      <c r="N17" s="199"/>
-      <c r="O17" s="200"/>
+      <c r="D17" s="193"/>
+      <c r="E17" s="194"/>
+      <c r="F17" s="200"/>
+      <c r="G17" s="228"/>
+      <c r="H17" s="228"/>
+      <c r="I17" s="202"/>
+      <c r="J17" s="200"/>
+      <c r="K17" s="228"/>
+      <c r="L17" s="228"/>
+      <c r="M17" s="228"/>
+      <c r="N17" s="228"/>
+      <c r="O17" s="202"/>
       <c r="P17" s="83" t="s">
         <v>83</v>
       </c>
@@ -7043,18 +7043,18 @@
       <c r="C18" s="82">
         <v>7</v>
       </c>
-      <c r="D18" s="191"/>
-      <c r="E18" s="192"/>
-      <c r="F18" s="198"/>
-      <c r="G18" s="199"/>
-      <c r="H18" s="199"/>
-      <c r="I18" s="200"/>
-      <c r="J18" s="198"/>
-      <c r="K18" s="199"/>
-      <c r="L18" s="199"/>
-      <c r="M18" s="199"/>
-      <c r="N18" s="199"/>
-      <c r="O18" s="200"/>
+      <c r="D18" s="193"/>
+      <c r="E18" s="194"/>
+      <c r="F18" s="200"/>
+      <c r="G18" s="228"/>
+      <c r="H18" s="228"/>
+      <c r="I18" s="202"/>
+      <c r="J18" s="200"/>
+      <c r="K18" s="228"/>
+      <c r="L18" s="228"/>
+      <c r="M18" s="228"/>
+      <c r="N18" s="228"/>
+      <c r="O18" s="202"/>
       <c r="P18" s="83" t="s">
         <v>91</v>
       </c>
@@ -7163,18 +7163,18 @@
       <c r="C19" s="82">
         <v>8</v>
       </c>
-      <c r="D19" s="191"/>
-      <c r="E19" s="192"/>
-      <c r="F19" s="198"/>
-      <c r="G19" s="199"/>
-      <c r="H19" s="199"/>
-      <c r="I19" s="200"/>
-      <c r="J19" s="198"/>
-      <c r="K19" s="199"/>
-      <c r="L19" s="199"/>
-      <c r="M19" s="199"/>
-      <c r="N19" s="199"/>
-      <c r="O19" s="200"/>
+      <c r="D19" s="193"/>
+      <c r="E19" s="194"/>
+      <c r="F19" s="200"/>
+      <c r="G19" s="228"/>
+      <c r="H19" s="228"/>
+      <c r="I19" s="202"/>
+      <c r="J19" s="200"/>
+      <c r="K19" s="228"/>
+      <c r="L19" s="228"/>
+      <c r="M19" s="228"/>
+      <c r="N19" s="228"/>
+      <c r="O19" s="202"/>
       <c r="P19" s="83" t="s">
         <v>93</v>
       </c>
@@ -7283,18 +7283,18 @@
       <c r="C20" s="82">
         <v>9</v>
       </c>
-      <c r="D20" s="193"/>
-      <c r="E20" s="194"/>
-      <c r="F20" s="201"/>
-      <c r="G20" s="202"/>
-      <c r="H20" s="202"/>
-      <c r="I20" s="203"/>
-      <c r="J20" s="201"/>
-      <c r="K20" s="202"/>
-      <c r="L20" s="202"/>
-      <c r="M20" s="202"/>
-      <c r="N20" s="202"/>
-      <c r="O20" s="203"/>
+      <c r="D20" s="195"/>
+      <c r="E20" s="196"/>
+      <c r="F20" s="203"/>
+      <c r="G20" s="204"/>
+      <c r="H20" s="204"/>
+      <c r="I20" s="205"/>
+      <c r="J20" s="203"/>
+      <c r="K20" s="204"/>
+      <c r="L20" s="204"/>
+      <c r="M20" s="204"/>
+      <c r="N20" s="204"/>
+      <c r="O20" s="205"/>
       <c r="P20" s="83" t="s">
         <v>95</v>
       </c>
@@ -7403,24 +7403,24 @@
       <c r="C21" s="82">
         <v>10</v>
       </c>
-      <c r="D21" s="189" t="s">
+      <c r="D21" s="191" t="s">
         <v>97</v>
       </c>
-      <c r="E21" s="190"/>
-      <c r="F21" s="195" t="s">
+      <c r="E21" s="192"/>
+      <c r="F21" s="197" t="s">
         <v>98</v>
       </c>
-      <c r="G21" s="196"/>
-      <c r="H21" s="196"/>
-      <c r="I21" s="197"/>
-      <c r="J21" s="195" t="s">
+      <c r="G21" s="198"/>
+      <c r="H21" s="198"/>
+      <c r="I21" s="199"/>
+      <c r="J21" s="197" t="s">
         <v>99</v>
       </c>
-      <c r="K21" s="196"/>
-      <c r="L21" s="196"/>
-      <c r="M21" s="196"/>
-      <c r="N21" s="196"/>
-      <c r="O21" s="197"/>
+      <c r="K21" s="198"/>
+      <c r="L21" s="198"/>
+      <c r="M21" s="198"/>
+      <c r="N21" s="198"/>
+      <c r="O21" s="199"/>
       <c r="P21" s="83" t="s">
         <v>79</v>
       </c>
@@ -7529,18 +7529,18 @@
       <c r="C22" s="82">
         <v>11</v>
       </c>
-      <c r="D22" s="191"/>
-      <c r="E22" s="192"/>
-      <c r="F22" s="198"/>
-      <c r="G22" s="199"/>
-      <c r="H22" s="199"/>
-      <c r="I22" s="200"/>
-      <c r="J22" s="198"/>
-      <c r="K22" s="199"/>
-      <c r="L22" s="199"/>
-      <c r="M22" s="199"/>
-      <c r="N22" s="199"/>
-      <c r="O22" s="200"/>
+      <c r="D22" s="193"/>
+      <c r="E22" s="194"/>
+      <c r="F22" s="200"/>
+      <c r="G22" s="228"/>
+      <c r="H22" s="228"/>
+      <c r="I22" s="202"/>
+      <c r="J22" s="200"/>
+      <c r="K22" s="228"/>
+      <c r="L22" s="228"/>
+      <c r="M22" s="228"/>
+      <c r="N22" s="228"/>
+      <c r="O22" s="202"/>
       <c r="P22" s="83" t="s">
         <v>81</v>
       </c>
@@ -7649,18 +7649,18 @@
       <c r="C23" s="82">
         <v>12</v>
       </c>
-      <c r="D23" s="191"/>
-      <c r="E23" s="192"/>
-      <c r="F23" s="198"/>
-      <c r="G23" s="199"/>
-      <c r="H23" s="199"/>
-      <c r="I23" s="200"/>
-      <c r="J23" s="198"/>
-      <c r="K23" s="199"/>
-      <c r="L23" s="199"/>
-      <c r="M23" s="199"/>
-      <c r="N23" s="199"/>
-      <c r="O23" s="200"/>
+      <c r="D23" s="193"/>
+      <c r="E23" s="194"/>
+      <c r="F23" s="200"/>
+      <c r="G23" s="228"/>
+      <c r="H23" s="228"/>
+      <c r="I23" s="202"/>
+      <c r="J23" s="200"/>
+      <c r="K23" s="228"/>
+      <c r="L23" s="228"/>
+      <c r="M23" s="228"/>
+      <c r="N23" s="228"/>
+      <c r="O23" s="202"/>
       <c r="P23" s="83" t="s">
         <v>83</v>
       </c>
@@ -7769,18 +7769,18 @@
       <c r="C24" s="82">
         <v>13</v>
       </c>
-      <c r="D24" s="191"/>
-      <c r="E24" s="192"/>
-      <c r="F24" s="198"/>
-      <c r="G24" s="199"/>
-      <c r="H24" s="199"/>
-      <c r="I24" s="200"/>
-      <c r="J24" s="198"/>
-      <c r="K24" s="199"/>
-      <c r="L24" s="199"/>
-      <c r="M24" s="199"/>
-      <c r="N24" s="199"/>
-      <c r="O24" s="200"/>
+      <c r="D24" s="193"/>
+      <c r="E24" s="194"/>
+      <c r="F24" s="200"/>
+      <c r="G24" s="228"/>
+      <c r="H24" s="228"/>
+      <c r="I24" s="202"/>
+      <c r="J24" s="200"/>
+      <c r="K24" s="228"/>
+      <c r="L24" s="228"/>
+      <c r="M24" s="228"/>
+      <c r="N24" s="228"/>
+      <c r="O24" s="202"/>
       <c r="P24" s="83" t="s">
         <v>91</v>
       </c>
@@ -7889,18 +7889,18 @@
       <c r="C25" s="82">
         <v>14</v>
       </c>
-      <c r="D25" s="191"/>
-      <c r="E25" s="192"/>
-      <c r="F25" s="198"/>
-      <c r="G25" s="199"/>
-      <c r="H25" s="199"/>
-      <c r="I25" s="200"/>
-      <c r="J25" s="198"/>
-      <c r="K25" s="199"/>
-      <c r="L25" s="199"/>
-      <c r="M25" s="199"/>
-      <c r="N25" s="199"/>
-      <c r="O25" s="200"/>
+      <c r="D25" s="193"/>
+      <c r="E25" s="194"/>
+      <c r="F25" s="200"/>
+      <c r="G25" s="228"/>
+      <c r="H25" s="228"/>
+      <c r="I25" s="202"/>
+      <c r="J25" s="200"/>
+      <c r="K25" s="228"/>
+      <c r="L25" s="228"/>
+      <c r="M25" s="228"/>
+      <c r="N25" s="228"/>
+      <c r="O25" s="202"/>
       <c r="P25" s="83" t="s">
         <v>93</v>
       </c>
@@ -8009,18 +8009,18 @@
       <c r="C26" s="82">
         <v>15</v>
       </c>
-      <c r="D26" s="191"/>
-      <c r="E26" s="192"/>
-      <c r="F26" s="198"/>
-      <c r="G26" s="199"/>
-      <c r="H26" s="199"/>
-      <c r="I26" s="200"/>
-      <c r="J26" s="198"/>
-      <c r="K26" s="199"/>
-      <c r="L26" s="199"/>
-      <c r="M26" s="199"/>
-      <c r="N26" s="199"/>
-      <c r="O26" s="200"/>
+      <c r="D26" s="193"/>
+      <c r="E26" s="194"/>
+      <c r="F26" s="200"/>
+      <c r="G26" s="228"/>
+      <c r="H26" s="228"/>
+      <c r="I26" s="202"/>
+      <c r="J26" s="200"/>
+      <c r="K26" s="228"/>
+      <c r="L26" s="228"/>
+      <c r="M26" s="228"/>
+      <c r="N26" s="228"/>
+      <c r="O26" s="202"/>
       <c r="P26" s="83" t="s">
         <v>95</v>
       </c>
@@ -8129,18 +8129,18 @@
       <c r="C27" s="82">
         <v>16</v>
       </c>
-      <c r="D27" s="191"/>
-      <c r="E27" s="192"/>
-      <c r="F27" s="198"/>
-      <c r="G27" s="199"/>
-      <c r="H27" s="199"/>
-      <c r="I27" s="200"/>
-      <c r="J27" s="198"/>
-      <c r="K27" s="199"/>
-      <c r="L27" s="199"/>
-      <c r="M27" s="199"/>
-      <c r="N27" s="199"/>
-      <c r="O27" s="200"/>
+      <c r="D27" s="193"/>
+      <c r="E27" s="194"/>
+      <c r="F27" s="200"/>
+      <c r="G27" s="228"/>
+      <c r="H27" s="228"/>
+      <c r="I27" s="202"/>
+      <c r="J27" s="200"/>
+      <c r="K27" s="228"/>
+      <c r="L27" s="228"/>
+      <c r="M27" s="228"/>
+      <c r="N27" s="228"/>
+      <c r="O27" s="202"/>
       <c r="P27" s="83" t="s">
         <v>106</v>
       </c>
@@ -8249,18 +8249,18 @@
       <c r="C28" s="82">
         <v>17</v>
       </c>
-      <c r="D28" s="191"/>
-      <c r="E28" s="192"/>
-      <c r="F28" s="198"/>
-      <c r="G28" s="199"/>
-      <c r="H28" s="199"/>
-      <c r="I28" s="200"/>
-      <c r="J28" s="198"/>
-      <c r="K28" s="199"/>
-      <c r="L28" s="199"/>
-      <c r="M28" s="199"/>
-      <c r="N28" s="199"/>
-      <c r="O28" s="200"/>
+      <c r="D28" s="193"/>
+      <c r="E28" s="194"/>
+      <c r="F28" s="200"/>
+      <c r="G28" s="228"/>
+      <c r="H28" s="228"/>
+      <c r="I28" s="202"/>
+      <c r="J28" s="200"/>
+      <c r="K28" s="228"/>
+      <c r="L28" s="228"/>
+      <c r="M28" s="228"/>
+      <c r="N28" s="228"/>
+      <c r="O28" s="202"/>
       <c r="P28" s="83" t="s">
         <v>108</v>
       </c>
@@ -8369,18 +8369,18 @@
       <c r="C29" s="82">
         <v>18</v>
       </c>
-      <c r="D29" s="193"/>
-      <c r="E29" s="194"/>
-      <c r="F29" s="201"/>
-      <c r="G29" s="202"/>
-      <c r="H29" s="202"/>
-      <c r="I29" s="203"/>
-      <c r="J29" s="201"/>
-      <c r="K29" s="202"/>
-      <c r="L29" s="202"/>
-      <c r="M29" s="202"/>
-      <c r="N29" s="202"/>
-      <c r="O29" s="203"/>
+      <c r="D29" s="195"/>
+      <c r="E29" s="196"/>
+      <c r="F29" s="203"/>
+      <c r="G29" s="204"/>
+      <c r="H29" s="204"/>
+      <c r="I29" s="205"/>
+      <c r="J29" s="203"/>
+      <c r="K29" s="204"/>
+      <c r="L29" s="204"/>
+      <c r="M29" s="204"/>
+      <c r="N29" s="204"/>
+      <c r="O29" s="205"/>
       <c r="P29" s="83" t="s">
         <v>110</v>
       </c>
@@ -8504,6 +8504,239 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="257">
+    <mergeCell ref="AC22:AE22"/>
+    <mergeCell ref="AF22:AH22"/>
+    <mergeCell ref="AI22:AK22"/>
+    <mergeCell ref="AL22:AN22"/>
+    <mergeCell ref="AO22:AQ22"/>
+    <mergeCell ref="AR22:AT22"/>
+    <mergeCell ref="AU22:AW22"/>
+    <mergeCell ref="AX22:AZ22"/>
+    <mergeCell ref="D15:E20"/>
+    <mergeCell ref="D21:E29"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="AF24:AH24"/>
+    <mergeCell ref="AI24:AK24"/>
+    <mergeCell ref="AL24:AN24"/>
+    <mergeCell ref="AO24:AQ24"/>
+    <mergeCell ref="AR24:AT24"/>
+    <mergeCell ref="AU24:AW24"/>
+    <mergeCell ref="AX24:AZ24"/>
+    <mergeCell ref="R23:T23"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="W23:Y23"/>
+    <mergeCell ref="Z23:AB23"/>
+    <mergeCell ref="AC23:AE23"/>
+    <mergeCell ref="AF23:AH23"/>
+    <mergeCell ref="AR23:AT23"/>
+    <mergeCell ref="AU23:AW23"/>
+    <mergeCell ref="AX23:AZ23"/>
+    <mergeCell ref="AC26:AE26"/>
+    <mergeCell ref="AF26:AH26"/>
+    <mergeCell ref="AI26:AK26"/>
+    <mergeCell ref="AL26:AN26"/>
+    <mergeCell ref="AO26:AQ26"/>
+    <mergeCell ref="AR26:AT26"/>
+    <mergeCell ref="AU26:AW26"/>
+    <mergeCell ref="AX26:AZ26"/>
+    <mergeCell ref="AR25:AT25"/>
+    <mergeCell ref="AU25:AW25"/>
+    <mergeCell ref="AX25:AZ25"/>
+    <mergeCell ref="W25:Y25"/>
+    <mergeCell ref="Z25:AB25"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="AF25:AH25"/>
+    <mergeCell ref="AI25:AK25"/>
+    <mergeCell ref="AL25:AN25"/>
+    <mergeCell ref="AO25:AQ25"/>
+    <mergeCell ref="AI23:AK23"/>
+    <mergeCell ref="AL23:AN23"/>
+    <mergeCell ref="AO23:AQ23"/>
+    <mergeCell ref="AX28:AZ28"/>
+    <mergeCell ref="R27:T27"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="W27:Y27"/>
+    <mergeCell ref="Z27:AB27"/>
+    <mergeCell ref="AC27:AE27"/>
+    <mergeCell ref="AF27:AH27"/>
+    <mergeCell ref="AI27:AK27"/>
+    <mergeCell ref="AL27:AN27"/>
+    <mergeCell ref="AO27:AQ27"/>
+    <mergeCell ref="AR27:AT27"/>
+    <mergeCell ref="AU27:AW27"/>
+    <mergeCell ref="AX27:AZ27"/>
+    <mergeCell ref="F21:I29"/>
+    <mergeCell ref="J21:O29"/>
+    <mergeCell ref="F15:I20"/>
+    <mergeCell ref="J15:O20"/>
+    <mergeCell ref="R28:T28"/>
+    <mergeCell ref="U28:V28"/>
+    <mergeCell ref="W28:Y28"/>
+    <mergeCell ref="Z28:AB28"/>
+    <mergeCell ref="R26:T26"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="W26:Y26"/>
+    <mergeCell ref="Z26:AB26"/>
+    <mergeCell ref="R24:T24"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="W24:Y24"/>
+    <mergeCell ref="Z24:AB24"/>
+    <mergeCell ref="R22:T22"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="W22:Y22"/>
+    <mergeCell ref="Z22:AB22"/>
+    <mergeCell ref="R29:T29"/>
+    <mergeCell ref="Z29:AB29"/>
+    <mergeCell ref="R25:T25"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="AC13:AE13"/>
+    <mergeCell ref="AC14:AE14"/>
+    <mergeCell ref="AC15:AE15"/>
+    <mergeCell ref="AC16:AE16"/>
+    <mergeCell ref="AC17:AE17"/>
+    <mergeCell ref="AF13:AH13"/>
+    <mergeCell ref="AF14:AH14"/>
+    <mergeCell ref="AF15:AH15"/>
+    <mergeCell ref="AF16:AH16"/>
+    <mergeCell ref="W11:Y11"/>
+    <mergeCell ref="W12:Y12"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="AC11:AE11"/>
+    <mergeCell ref="AF12:AH12"/>
+    <mergeCell ref="AL18:AN18"/>
+    <mergeCell ref="AO18:AQ18"/>
+    <mergeCell ref="AR18:AT18"/>
+    <mergeCell ref="AU18:AW18"/>
+    <mergeCell ref="AX18:AZ18"/>
+    <mergeCell ref="AU13:AW13"/>
+    <mergeCell ref="AX13:AZ13"/>
+    <mergeCell ref="AI14:AK14"/>
+    <mergeCell ref="AI16:AK16"/>
+    <mergeCell ref="AI18:AK18"/>
+    <mergeCell ref="AI15:AK15"/>
+    <mergeCell ref="AI17:AK17"/>
+    <mergeCell ref="AI13:AK13"/>
+    <mergeCell ref="AX17:AZ17"/>
+    <mergeCell ref="AL16:AN16"/>
+    <mergeCell ref="AU16:AW16"/>
+    <mergeCell ref="AU14:AW14"/>
+    <mergeCell ref="AX14:AZ14"/>
+    <mergeCell ref="AU15:AW15"/>
+    <mergeCell ref="AX15:AZ15"/>
+    <mergeCell ref="AX16:AZ16"/>
+    <mergeCell ref="AO14:AQ14"/>
+    <mergeCell ref="AO16:AQ16"/>
+    <mergeCell ref="AR16:AT16"/>
+    <mergeCell ref="AX21:AZ21"/>
+    <mergeCell ref="AX29:AZ29"/>
+    <mergeCell ref="AL29:AN29"/>
+    <mergeCell ref="AO29:AQ29"/>
+    <mergeCell ref="AR29:AT29"/>
+    <mergeCell ref="AU29:AW29"/>
+    <mergeCell ref="AL19:AN19"/>
+    <mergeCell ref="AO19:AQ19"/>
+    <mergeCell ref="AX20:AZ20"/>
+    <mergeCell ref="AL20:AN20"/>
+    <mergeCell ref="AO20:AQ20"/>
+    <mergeCell ref="AR20:AT20"/>
+    <mergeCell ref="AU20:AW20"/>
+    <mergeCell ref="AL21:AN21"/>
+    <mergeCell ref="AO21:AQ21"/>
+    <mergeCell ref="AR21:AT21"/>
+    <mergeCell ref="AU21:AW21"/>
+    <mergeCell ref="AR19:AT19"/>
+    <mergeCell ref="AU19:AW19"/>
+    <mergeCell ref="AX19:AZ19"/>
+    <mergeCell ref="AL28:AN28"/>
+    <mergeCell ref="AO28:AQ28"/>
+    <mergeCell ref="AR28:AT28"/>
+    <mergeCell ref="AU28:AW28"/>
+    <mergeCell ref="AL15:AN15"/>
+    <mergeCell ref="AO15:AQ15"/>
+    <mergeCell ref="AR15:AT15"/>
+    <mergeCell ref="AL14:AN14"/>
+    <mergeCell ref="AL17:AN17"/>
+    <mergeCell ref="AO17:AQ17"/>
+    <mergeCell ref="AR17:AT17"/>
+    <mergeCell ref="AU17:AW17"/>
+    <mergeCell ref="AR14:AT14"/>
+    <mergeCell ref="AL13:AN13"/>
+    <mergeCell ref="AO13:AQ13"/>
+    <mergeCell ref="AX11:AZ11"/>
+    <mergeCell ref="AU11:AW11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="J11:O11"/>
+    <mergeCell ref="Z12:AB12"/>
+    <mergeCell ref="AU12:AW12"/>
+    <mergeCell ref="AC12:AE12"/>
+    <mergeCell ref="AO12:AQ12"/>
+    <mergeCell ref="AI12:AK12"/>
+    <mergeCell ref="AR11:AT11"/>
+    <mergeCell ref="AX12:AZ12"/>
+    <mergeCell ref="R11:T11"/>
+    <mergeCell ref="Z11:AB11"/>
+    <mergeCell ref="AO11:AQ11"/>
+    <mergeCell ref="AL11:AN11"/>
+    <mergeCell ref="AI11:AK11"/>
+    <mergeCell ref="AF11:AH11"/>
+    <mergeCell ref="J12:O14"/>
+    <mergeCell ref="AL12:AN12"/>
+    <mergeCell ref="AR12:AT12"/>
+    <mergeCell ref="AR13:AT13"/>
+    <mergeCell ref="D12:E14"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="R18:T18"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="Z13:AB13"/>
+    <mergeCell ref="Z14:AB14"/>
+    <mergeCell ref="Z18:AB18"/>
+    <mergeCell ref="Z19:AB19"/>
+    <mergeCell ref="W18:Y18"/>
+    <mergeCell ref="W19:Y19"/>
+    <mergeCell ref="F12:I14"/>
+    <mergeCell ref="R12:T12"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="R15:T15"/>
+    <mergeCell ref="R20:T20"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="R13:T13"/>
+    <mergeCell ref="R14:T14"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="R21:T21"/>
+    <mergeCell ref="Z15:AB15"/>
+    <mergeCell ref="Z16:AB16"/>
+    <mergeCell ref="Z17:AB17"/>
+    <mergeCell ref="Z20:AB20"/>
+    <mergeCell ref="W15:Y15"/>
+    <mergeCell ref="W16:Y16"/>
+    <mergeCell ref="W17:Y17"/>
+    <mergeCell ref="Z21:AB21"/>
+    <mergeCell ref="W21:Y21"/>
+    <mergeCell ref="W20:Y20"/>
     <mergeCell ref="AI29:AK29"/>
     <mergeCell ref="AC29:AE29"/>
     <mergeCell ref="AF29:AH29"/>
@@ -8528,239 +8761,6 @@
     <mergeCell ref="AC28:AE28"/>
     <mergeCell ref="AF28:AH28"/>
     <mergeCell ref="AI28:AK28"/>
-    <mergeCell ref="R20:T20"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="R13:T13"/>
-    <mergeCell ref="R14:T14"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="R21:T21"/>
-    <mergeCell ref="Z15:AB15"/>
-    <mergeCell ref="Z16:AB16"/>
-    <mergeCell ref="Z17:AB17"/>
-    <mergeCell ref="Z20:AB20"/>
-    <mergeCell ref="W15:Y15"/>
-    <mergeCell ref="W16:Y16"/>
-    <mergeCell ref="W17:Y17"/>
-    <mergeCell ref="Z21:AB21"/>
-    <mergeCell ref="W21:Y21"/>
-    <mergeCell ref="W20:Y20"/>
-    <mergeCell ref="D12:E14"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="R18:T18"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="Z13:AB13"/>
-    <mergeCell ref="Z14:AB14"/>
-    <mergeCell ref="Z18:AB18"/>
-    <mergeCell ref="Z19:AB19"/>
-    <mergeCell ref="W18:Y18"/>
-    <mergeCell ref="W19:Y19"/>
-    <mergeCell ref="F12:I14"/>
-    <mergeCell ref="R12:T12"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="R15:T15"/>
-    <mergeCell ref="AL13:AN13"/>
-    <mergeCell ref="AO13:AQ13"/>
-    <mergeCell ref="AX11:AZ11"/>
-    <mergeCell ref="AU11:AW11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="J11:O11"/>
-    <mergeCell ref="Z12:AB12"/>
-    <mergeCell ref="AU12:AW12"/>
-    <mergeCell ref="AC12:AE12"/>
-    <mergeCell ref="AO12:AQ12"/>
-    <mergeCell ref="AI12:AK12"/>
-    <mergeCell ref="AR11:AT11"/>
-    <mergeCell ref="AX12:AZ12"/>
-    <mergeCell ref="R11:T11"/>
-    <mergeCell ref="Z11:AB11"/>
-    <mergeCell ref="AO11:AQ11"/>
-    <mergeCell ref="AL11:AN11"/>
-    <mergeCell ref="AI11:AK11"/>
-    <mergeCell ref="AF11:AH11"/>
-    <mergeCell ref="J12:O14"/>
-    <mergeCell ref="AL12:AN12"/>
-    <mergeCell ref="AR12:AT12"/>
-    <mergeCell ref="AR13:AT13"/>
-    <mergeCell ref="AL15:AN15"/>
-    <mergeCell ref="AO15:AQ15"/>
-    <mergeCell ref="AR15:AT15"/>
-    <mergeCell ref="AL14:AN14"/>
-    <mergeCell ref="AL17:AN17"/>
-    <mergeCell ref="AO17:AQ17"/>
-    <mergeCell ref="AR17:AT17"/>
-    <mergeCell ref="AU17:AW17"/>
-    <mergeCell ref="AR14:AT14"/>
-    <mergeCell ref="AX21:AZ21"/>
-    <mergeCell ref="AX29:AZ29"/>
-    <mergeCell ref="AL29:AN29"/>
-    <mergeCell ref="AO29:AQ29"/>
-    <mergeCell ref="AR29:AT29"/>
-    <mergeCell ref="AU29:AW29"/>
-    <mergeCell ref="AL19:AN19"/>
-    <mergeCell ref="AO19:AQ19"/>
-    <mergeCell ref="AX20:AZ20"/>
-    <mergeCell ref="AL20:AN20"/>
-    <mergeCell ref="AO20:AQ20"/>
-    <mergeCell ref="AR20:AT20"/>
-    <mergeCell ref="AU20:AW20"/>
-    <mergeCell ref="AL21:AN21"/>
-    <mergeCell ref="AO21:AQ21"/>
-    <mergeCell ref="AR21:AT21"/>
-    <mergeCell ref="AU21:AW21"/>
-    <mergeCell ref="AR19:AT19"/>
-    <mergeCell ref="AU19:AW19"/>
-    <mergeCell ref="AX19:AZ19"/>
-    <mergeCell ref="AL28:AN28"/>
-    <mergeCell ref="AO28:AQ28"/>
-    <mergeCell ref="AR28:AT28"/>
-    <mergeCell ref="AU28:AW28"/>
-    <mergeCell ref="AL18:AN18"/>
-    <mergeCell ref="AO18:AQ18"/>
-    <mergeCell ref="AR18:AT18"/>
-    <mergeCell ref="AU18:AW18"/>
-    <mergeCell ref="AX18:AZ18"/>
-    <mergeCell ref="AU13:AW13"/>
-    <mergeCell ref="AX13:AZ13"/>
-    <mergeCell ref="AI14:AK14"/>
-    <mergeCell ref="AI16:AK16"/>
-    <mergeCell ref="AI18:AK18"/>
-    <mergeCell ref="AI15:AK15"/>
-    <mergeCell ref="AI17:AK17"/>
-    <mergeCell ref="AI13:AK13"/>
-    <mergeCell ref="AX17:AZ17"/>
-    <mergeCell ref="AL16:AN16"/>
-    <mergeCell ref="AU16:AW16"/>
-    <mergeCell ref="AU14:AW14"/>
-    <mergeCell ref="AX14:AZ14"/>
-    <mergeCell ref="AU15:AW15"/>
-    <mergeCell ref="AX15:AZ15"/>
-    <mergeCell ref="AX16:AZ16"/>
-    <mergeCell ref="AO14:AQ14"/>
-    <mergeCell ref="AO16:AQ16"/>
-    <mergeCell ref="AR16:AT16"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="AC13:AE13"/>
-    <mergeCell ref="AC14:AE14"/>
-    <mergeCell ref="AC15:AE15"/>
-    <mergeCell ref="AC16:AE16"/>
-    <mergeCell ref="AC17:AE17"/>
-    <mergeCell ref="AF13:AH13"/>
-    <mergeCell ref="AF14:AH14"/>
-    <mergeCell ref="AF15:AH15"/>
-    <mergeCell ref="AF16:AH16"/>
-    <mergeCell ref="W11:Y11"/>
-    <mergeCell ref="W12:Y12"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="AC11:AE11"/>
-    <mergeCell ref="AF12:AH12"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="F21:I29"/>
-    <mergeCell ref="J21:O29"/>
-    <mergeCell ref="F15:I20"/>
-    <mergeCell ref="J15:O20"/>
-    <mergeCell ref="R28:T28"/>
-    <mergeCell ref="U28:V28"/>
-    <mergeCell ref="W28:Y28"/>
-    <mergeCell ref="Z28:AB28"/>
-    <mergeCell ref="R26:T26"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="W26:Y26"/>
-    <mergeCell ref="Z26:AB26"/>
-    <mergeCell ref="R24:T24"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="W24:Y24"/>
-    <mergeCell ref="Z24:AB24"/>
-    <mergeCell ref="R22:T22"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="W22:Y22"/>
-    <mergeCell ref="Z22:AB22"/>
-    <mergeCell ref="R29:T29"/>
-    <mergeCell ref="Z29:AB29"/>
-    <mergeCell ref="R25:T25"/>
-    <mergeCell ref="U25:V25"/>
-    <mergeCell ref="AX28:AZ28"/>
-    <mergeCell ref="R27:T27"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="W27:Y27"/>
-    <mergeCell ref="Z27:AB27"/>
-    <mergeCell ref="AC27:AE27"/>
-    <mergeCell ref="AF27:AH27"/>
-    <mergeCell ref="AI27:AK27"/>
-    <mergeCell ref="AL27:AN27"/>
-    <mergeCell ref="AO27:AQ27"/>
-    <mergeCell ref="AR27:AT27"/>
-    <mergeCell ref="AU27:AW27"/>
-    <mergeCell ref="AX27:AZ27"/>
-    <mergeCell ref="W25:Y25"/>
-    <mergeCell ref="Z25:AB25"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="AF25:AH25"/>
-    <mergeCell ref="AI25:AK25"/>
-    <mergeCell ref="AL25:AN25"/>
-    <mergeCell ref="AO25:AQ25"/>
-    <mergeCell ref="AI23:AK23"/>
-    <mergeCell ref="AL23:AN23"/>
-    <mergeCell ref="AO23:AQ23"/>
-    <mergeCell ref="AR23:AT23"/>
-    <mergeCell ref="AU23:AW23"/>
-    <mergeCell ref="AX23:AZ23"/>
-    <mergeCell ref="AC26:AE26"/>
-    <mergeCell ref="AF26:AH26"/>
-    <mergeCell ref="AI26:AK26"/>
-    <mergeCell ref="AL26:AN26"/>
-    <mergeCell ref="AO26:AQ26"/>
-    <mergeCell ref="AR26:AT26"/>
-    <mergeCell ref="AU26:AW26"/>
-    <mergeCell ref="AX26:AZ26"/>
-    <mergeCell ref="AR25:AT25"/>
-    <mergeCell ref="AU25:AW25"/>
-    <mergeCell ref="AX25:AZ25"/>
-    <mergeCell ref="AC22:AE22"/>
-    <mergeCell ref="AF22:AH22"/>
-    <mergeCell ref="AI22:AK22"/>
-    <mergeCell ref="AL22:AN22"/>
-    <mergeCell ref="AO22:AQ22"/>
-    <mergeCell ref="AR22:AT22"/>
-    <mergeCell ref="AU22:AW22"/>
-    <mergeCell ref="AX22:AZ22"/>
-    <mergeCell ref="D15:E20"/>
-    <mergeCell ref="D21:E29"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="AF24:AH24"/>
-    <mergeCell ref="AI24:AK24"/>
-    <mergeCell ref="AL24:AN24"/>
-    <mergeCell ref="AO24:AQ24"/>
-    <mergeCell ref="AR24:AT24"/>
-    <mergeCell ref="AU24:AW24"/>
-    <mergeCell ref="AX24:AZ24"/>
-    <mergeCell ref="R23:T23"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="W23:Y23"/>
-    <mergeCell ref="Z23:AB23"/>
-    <mergeCell ref="AC23:AE23"/>
-    <mergeCell ref="AF23:AH23"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
